--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83888.91330210479</v>
+        <v>72080.84962923393</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19373810.48201911</v>
+        <v>19415953.74618006</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19720990.68060518</v>
+        <v>19648850.18274996</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3229222.242868161</v>
+        <v>3263744.346333312</v>
       </c>
     </row>
     <row r="11">
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>31.63811634825565</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="W17" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>64.18674017472135</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="E18" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="F18" t="n">
-        <v>1.848299621961022</v>
+        <v>64.18674017472135</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>29.78981672629463</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>31.63811634825566</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>64.18674017472135</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T20" t="n">
-        <v>35.91975062245194</v>
+        <v>64.18674017472135</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.63811634825565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>25.97469634924188</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>31.63811634825566</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>38.21204382547947</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Y21" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>64.18674017472135</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.63811634825565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>94.0388518361775</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>82.82942069730512</v>
-      </c>
-      <c r="G23" t="n">
-        <v>94.0388518361775</v>
-      </c>
-      <c r="H23" t="n">
-        <v>94.0388518361775</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>94.0388518361775</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>94.0388518361775</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>82.82942069730512</v>
-      </c>
-      <c r="V24" t="n">
-        <v>94.0388518361775</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>94.0388518361775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
     </row>
     <row r="25">
@@ -2478,59 +2478,59 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>82.82942069730512</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>94.0388518361775</v>
       </c>
-      <c r="D25" t="n">
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>94.0388518361775</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>94.0388518361775</v>
-      </c>
-      <c r="X25" t="n">
-        <v>82.82942069730512</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,52 +2563,52 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>82.82942069730512</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>94.0388518361775</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>94.0388518361775</v>
-      </c>
-      <c r="G26" t="n">
-        <v>82.82942069730512</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>94.0388518361775</v>
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>94.0388518361775</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>82.82942069730512</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>94.0388518361775</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>94.0388518361775</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" t="n">
-        <v>82.82942069730512</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.82942069730515</v>
       </c>
       <c r="W28" t="n">
         <v>94.0388518361775</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T29" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="W29" t="n">
+        <v>94.0388518361775</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>82.82942069730512</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.82942069730515</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="W30" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
     </row>
     <row r="31">
@@ -2955,61 +2955,61 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.0388518361775</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>94.0388518361775</v>
+      </c>
+      <c r="S31" t="n">
         <v>82.82942069730512</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>94.03885183617753</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U31" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,17 +3028,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.82942069730512</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>94.03885183617753</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -3046,43 +3046,43 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>82.82942069730515</v>
+      </c>
+      <c r="T32" t="n">
         <v>94.03885183617753</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>94.03885183617753</v>
       </c>
-      <c r="D33" t="n">
+      <c r="F33" t="n">
         <v>94.03885183617753</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>24.35184068838327</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>58.47758000892185</v>
+        <v>82.82942069730515</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3186,23 +3186,23 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>82.82942069730512</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>94.03885183617753</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>82.82942069730512</v>
-      </c>
-      <c r="C35" t="n">
-        <v>94.03885183617753</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>71.98612626614437</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>80.53030557895501</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>24.35184068838327</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="T36" t="n">
-        <v>82.82942069730515</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>94.03885183617753</v>
       </c>
       <c r="V36" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>82.82942069730515</v>
+      </c>
+      <c r="V37" t="n">
         <v>94.03885183617753</v>
       </c>
-      <c r="S37" t="n">
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>94.03885183617753</v>
-      </c>
-      <c r="T37" t="n">
-        <v>82.82942069730512</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>94.03885183617753</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>94.03885183617753</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>94.03885183617753</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>94.03885183617753</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="Y38" t="n">
         <v>82.82942069730512</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,65 +3581,65 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>94.03885183617753</v>
       </c>
-      <c r="D39" t="n">
-        <v>2.299115118350163</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>94.03885183617753</v>
       </c>
-      <c r="G39" t="n">
-        <v>94.03885183617753</v>
-      </c>
-      <c r="H39" t="n">
-        <v>80.53030557895501</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S40" t="n">
-        <v>82.82942069730515</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>94.03885183617753</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>94.0388518361775</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>94.0388518361775</v>
+        <v>82.82942069730515</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>82.82942069730512</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="T42" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="U42" t="n">
-        <v>94.0388518361775</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>94.0388518361775</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>82.82942069730512</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="U43" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="V43" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="W43" t="n">
-        <v>94.0388518361775</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.82942069730512</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>107.3621491644614</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>121.8916316581079</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="Y44" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>121.8916316581079</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>121.8916316581079</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>107.3621491644614</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>13.60633383892398</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>93.7558153255374</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="V46" t="n">
-        <v>121.8916316581079</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="X46" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="C17" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="D17" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="E17" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="F17" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="G17" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="H17" t="n">
-        <v>39.15615643611125</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="I17" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="J17" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="K17" t="n">
-        <v>2.873580049796156</v>
+        <v>20.87639790396906</v>
       </c>
       <c r="L17" t="n">
-        <v>38.43413316602358</v>
+        <v>63.52910596352723</v>
       </c>
       <c r="M17" t="n">
-        <v>72.55789625735292</v>
+        <v>131.5735963154556</v>
       </c>
       <c r="N17" t="n">
-        <v>108.1184493735803</v>
+        <v>203.7180931058441</v>
       </c>
       <c r="O17" t="n">
-        <v>143.6790024898078</v>
+        <v>263.174175837092</v>
       </c>
       <c r="P17" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="R17" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="S17" t="n">
-        <v>143.6790024898078</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="T17" t="n">
-        <v>143.6790024898078</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="U17" t="n">
-        <v>143.6790024898078</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="V17" t="n">
-        <v>107.3964261034927</v>
+        <v>144.274271716316</v>
       </c>
       <c r="W17" t="n">
-        <v>71.11384971717757</v>
+        <v>70.66494941207316</v>
       </c>
       <c r="X17" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="Y17" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="C18" t="n">
-        <v>107.3964261034927</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="D18" t="n">
-        <v>71.11384971717757</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="E18" t="n">
-        <v>34.83127333086247</v>
+        <v>144.274271716316</v>
       </c>
       <c r="F18" t="n">
-        <v>32.96430401575033</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="G18" t="n">
-        <v>32.96430401575033</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="H18" t="n">
-        <v>32.96430401575033</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="I18" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="J18" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="K18" t="n">
-        <v>2.873580049796156</v>
+        <v>23.54408432047461</v>
       </c>
       <c r="L18" t="n">
-        <v>32.9832318006464</v>
+        <v>77.47269899149514</v>
       </c>
       <c r="M18" t="n">
-        <v>68.54378491687382</v>
+        <v>114.6856357662569</v>
       </c>
       <c r="N18" t="n">
-        <v>89.43751674164238</v>
+        <v>186.8301325566454</v>
       </c>
       <c r="O18" t="n">
-        <v>124.9980698578698</v>
+        <v>251.8639984869579</v>
       </c>
       <c r="P18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="R18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="S18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="T18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="U18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="V18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="W18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="X18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="Y18" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.873580049796156</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="C19" t="n">
-        <v>2.873580049796156</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="D19" t="n">
-        <v>2.873580049796156</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="E19" t="n">
-        <v>2.873580049796156</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="F19" t="n">
-        <v>2.873580049796156</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="G19" t="n">
-        <v>2.873580049796156</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="H19" t="n">
-        <v>2.873580049796156</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="I19" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="J19" t="n">
-        <v>5.658614299122153</v>
+        <v>15.1171163653705</v>
       </c>
       <c r="K19" t="n">
-        <v>5.658614299122153</v>
+        <v>15.1171163653705</v>
       </c>
       <c r="L19" t="n">
-        <v>5.658614299122153</v>
+        <v>75.05942595363646</v>
       </c>
       <c r="M19" t="n">
-        <v>5.658614299122153</v>
+        <v>147.2039227440249</v>
       </c>
       <c r="N19" t="n">
-        <v>36.9973431411255</v>
+        <v>219.3484195344134</v>
       </c>
       <c r="O19" t="n">
-        <v>72.55789625735292</v>
+        <v>219.3484195344134</v>
       </c>
       <c r="P19" t="n">
-        <v>108.1184493735803</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="Q19" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="R19" t="n">
-        <v>107.3964261034927</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="S19" t="n">
-        <v>107.3964261034927</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="T19" t="n">
-        <v>107.3964261034927</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="U19" t="n">
-        <v>75.43873282242635</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="V19" t="n">
-        <v>39.15615643611125</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="W19" t="n">
-        <v>2.873580049796156</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="X19" t="n">
-        <v>2.873580049796156</v>
+        <v>153.0485029349818</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.873580049796156</v>
+        <v>153.0485029349818</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39.15615643611125</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="C20" t="n">
-        <v>39.15615643611125</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="D20" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="E20" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="F20" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="G20" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="H20" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="I20" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="J20" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="K20" t="n">
-        <v>2.873580049796156</v>
+        <v>20.87639790396906</v>
       </c>
       <c r="L20" t="n">
-        <v>15.60390711715397</v>
+        <v>63.52910596352723</v>
       </c>
       <c r="M20" t="n">
-        <v>47.6469941391087</v>
+        <v>131.5735963154556</v>
       </c>
       <c r="N20" t="n">
-        <v>83.20754725533612</v>
+        <v>203.7180931058441</v>
       </c>
       <c r="O20" t="n">
-        <v>108.1184493735803</v>
+        <v>263.174175837092</v>
       </c>
       <c r="P20" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="R20" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="S20" t="n">
-        <v>107.3964261034927</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="T20" t="n">
-        <v>71.11384971717757</v>
+        <v>153.0485029349818</v>
       </c>
       <c r="U20" t="n">
-        <v>71.11384971717757</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="V20" t="n">
-        <v>71.11384971717757</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="W20" t="n">
-        <v>71.11384971717757</v>
+        <v>79.43918063073892</v>
       </c>
       <c r="X20" t="n">
-        <v>71.11384971717757</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="Y20" t="n">
-        <v>39.15615643611125</v>
+        <v>5.829858326496036</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.15615643611125</v>
+        <v>105.6762476501752</v>
       </c>
       <c r="C21" t="n">
-        <v>2.873580049796156</v>
+        <v>105.6762476501752</v>
       </c>
       <c r="D21" t="n">
-        <v>2.873580049796156</v>
+        <v>105.6762476501752</v>
       </c>
       <c r="E21" t="n">
-        <v>2.873580049796156</v>
+        <v>105.6762476501752</v>
       </c>
       <c r="F21" t="n">
-        <v>2.873580049796156</v>
+        <v>105.6762476501752</v>
       </c>
       <c r="G21" t="n">
-        <v>2.873580049796156</v>
+        <v>105.6762476501752</v>
       </c>
       <c r="H21" t="n">
-        <v>2.873580049796156</v>
+        <v>32.06692534593228</v>
       </c>
       <c r="I21" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="J21" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="K21" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="L21" t="n">
-        <v>32.9832318006464</v>
+        <v>59.75847299751657</v>
       </c>
       <c r="M21" t="n">
-        <v>68.54378491687382</v>
+        <v>131.902969787905</v>
       </c>
       <c r="N21" t="n">
-        <v>104.1043380331012</v>
+        <v>204.0474665782935</v>
       </c>
       <c r="O21" t="n">
-        <v>124.9980698578698</v>
+        <v>269.081332508606</v>
       </c>
       <c r="P21" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="R21" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="S21" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="T21" t="n">
-        <v>111.7213092087414</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="U21" t="n">
-        <v>111.7213092087414</v>
+        <v>252.8948922586609</v>
       </c>
       <c r="V21" t="n">
-        <v>111.7213092087414</v>
+        <v>252.8948922586609</v>
       </c>
       <c r="W21" t="n">
-        <v>111.7213092087414</v>
+        <v>252.8948922586609</v>
       </c>
       <c r="X21" t="n">
-        <v>111.7213092087414</v>
+        <v>179.285569954418</v>
       </c>
       <c r="Y21" t="n">
-        <v>75.43873282242635</v>
+        <v>105.6762476501752</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.873580049796156</v>
+        <v>70.66494941207316</v>
       </c>
       <c r="C22" t="n">
-        <v>2.873580049796156</v>
+        <v>70.66494941207316</v>
       </c>
       <c r="D22" t="n">
-        <v>2.873580049796156</v>
+        <v>70.66494941207316</v>
       </c>
       <c r="E22" t="n">
-        <v>2.873580049796156</v>
+        <v>70.66494941207316</v>
       </c>
       <c r="F22" t="n">
-        <v>2.873580049796156</v>
+        <v>70.66494941207316</v>
       </c>
       <c r="G22" t="n">
-        <v>2.873580049796156</v>
+        <v>70.66494941207316</v>
       </c>
       <c r="H22" t="n">
-        <v>2.873580049796156</v>
+        <v>70.66494941207316</v>
       </c>
       <c r="I22" t="n">
-        <v>2.873580049796156</v>
+        <v>5.829858326496036</v>
       </c>
       <c r="J22" t="n">
-        <v>5.658614299122153</v>
+        <v>15.1171163653705</v>
       </c>
       <c r="K22" t="n">
-        <v>41.21916741534957</v>
+        <v>87.26161315575894</v>
       </c>
       <c r="L22" t="n">
-        <v>41.21916741534957</v>
+        <v>159.4061099461474</v>
       </c>
       <c r="M22" t="n">
-        <v>41.21916741534957</v>
+        <v>219.3484195344134</v>
       </c>
       <c r="N22" t="n">
-        <v>72.55789625735292</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="O22" t="n">
-        <v>108.1184493735803</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="P22" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="Q22" t="n">
-        <v>143.6790024898078</v>
+        <v>291.4929163248018</v>
       </c>
       <c r="R22" t="n">
-        <v>143.6790024898078</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="S22" t="n">
-        <v>143.6790024898078</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="T22" t="n">
-        <v>107.3964261034927</v>
+        <v>217.8835940205589</v>
       </c>
       <c r="U22" t="n">
-        <v>107.3964261034927</v>
+        <v>144.274271716316</v>
       </c>
       <c r="V22" t="n">
-        <v>107.3964261034927</v>
+        <v>144.274271716316</v>
       </c>
       <c r="W22" t="n">
-        <v>71.11384971717757</v>
+        <v>144.274271716316</v>
       </c>
       <c r="X22" t="n">
-        <v>34.83127333086247</v>
+        <v>144.274271716316</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.873580049796156</v>
+        <v>144.274271716316</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="C23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="D23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="E23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="F23" t="n">
-        <v>197.5005866038184</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="G23" t="n">
-        <v>102.5118473753563</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="H23" t="n">
         <v>7.5231081468942</v>
@@ -5992,10 +5992,10 @@
         <v>7.5231081468942</v>
       </c>
       <c r="K23" t="n">
-        <v>33.6636467417716</v>
+        <v>33.66364674177159</v>
       </c>
       <c r="L23" t="n">
-        <v>90.079441580918</v>
+        <v>90.07944158091789</v>
       </c>
       <c r="M23" t="n">
         <v>173.4380178380559</v>
@@ -6019,22 +6019,22 @@
         <v>281.1666681162479</v>
       </c>
       <c r="T23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="U23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="V23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="Y23" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>7.5231081468942</v>
       </c>
       <c r="K24" t="n">
-        <v>7.5231081468942</v>
+        <v>32.77251759274192</v>
       </c>
       <c r="L24" t="n">
-        <v>71.58370686834749</v>
+        <v>96.83311631419521</v>
       </c>
       <c r="M24" t="n">
-        <v>158.9213683450186</v>
+        <v>184.1707777908663</v>
       </c>
       <c r="N24" t="n">
-        <v>252.0198316628343</v>
+        <v>277.2692411086821</v>
       </c>
       <c r="O24" t="n">
-        <v>327.6157467215365</v>
+        <v>353.4056166599182</v>
       </c>
       <c r="P24" t="n">
         <v>376.15540734471</v>
@@ -6095,22 +6095,22 @@
         <v>376.15540734471</v>
       </c>
       <c r="S24" t="n">
+        <v>376.15540734471</v>
+      </c>
+      <c r="T24" t="n">
+        <v>376.15540734471</v>
+      </c>
+      <c r="U24" t="n">
         <v>281.1666681162479</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>281.1666681162479</v>
       </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
         <v>197.5005866038184</v>
       </c>
-      <c r="V24" t="n">
+      <c r="X24" t="n">
         <v>102.5118473753563</v>
-      </c>
-      <c r="W24" t="n">
-        <v>102.5118473753563</v>
-      </c>
-      <c r="X24" t="n">
-        <v>7.5231081468942</v>
       </c>
       <c r="Y24" t="n">
         <v>7.5231081468942</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>197.5005866038184</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="C25" t="n">
-        <v>102.5118473753563</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="D25" t="n">
-        <v>7.5231081468942</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="E25" t="n">
-        <v>7.5231081468942</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="F25" t="n">
-        <v>7.5231081468942</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="G25" t="n">
         <v>7.5231081468942</v>
@@ -6147,52 +6147,52 @@
         <v>7.5231081468942</v>
       </c>
       <c r="J25" t="n">
-        <v>7.5231081468942</v>
+        <v>19.57624763698252</v>
       </c>
       <c r="K25" t="n">
-        <v>7.5231081468942</v>
+        <v>112.6747109547982</v>
       </c>
       <c r="L25" t="n">
-        <v>8.681206983499337</v>
+        <v>205.773174272614</v>
       </c>
       <c r="M25" t="n">
-        <v>101.7796703013151</v>
+        <v>298.8716375904297</v>
       </c>
       <c r="N25" t="n">
-        <v>194.8781336191308</v>
+        <v>376.15540734471</v>
       </c>
       <c r="O25" t="n">
-        <v>287.9765969369465</v>
+        <v>376.15540734471</v>
       </c>
       <c r="P25" t="n">
-        <v>323.1938756386426</v>
+        <v>376.15540734471</v>
       </c>
       <c r="Q25" t="n">
         <v>376.15540734471</v>
       </c>
       <c r="R25" t="n">
-        <v>376.15540734471</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="S25" t="n">
-        <v>376.15540734471</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="T25" t="n">
-        <v>376.15540734471</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="U25" t="n">
-        <v>376.15540734471</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="V25" t="n">
-        <v>376.15540734471</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W25" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X25" t="n">
-        <v>197.5005866038184</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.5005866038184</v>
+        <v>91.18918965932363</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="C26" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="D26" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="E26" t="n">
         <v>186.1779288877858</v>
       </c>
       <c r="F26" t="n">
-        <v>91.18918965932363</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="G26" t="n">
-        <v>7.5231081468942</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="H26" t="n">
         <v>7.5231081468942</v>
@@ -6229,19 +6229,19 @@
         <v>7.5231081468942</v>
       </c>
       <c r="K26" t="n">
-        <v>33.66364674177157</v>
+        <v>33.66364674177161</v>
       </c>
       <c r="L26" t="n">
-        <v>90.07944158091786</v>
+        <v>90.07944158091789</v>
       </c>
       <c r="M26" t="n">
-        <v>173.4380178380557</v>
+        <v>173.4380178380558</v>
       </c>
       <c r="N26" t="n">
-        <v>261.1443984539839</v>
+        <v>261.144398453984</v>
       </c>
       <c r="O26" t="n">
-        <v>335.2951267986173</v>
+        <v>335.2951267986174</v>
       </c>
       <c r="P26" t="n">
         <v>376.15540734471</v>
@@ -6256,22 +6256,22 @@
         <v>376.15540734471</v>
       </c>
       <c r="T26" t="n">
-        <v>376.15540734471</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="U26" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="V26" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W26" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X26" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="Y26" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>281.1666681162479</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="C27" t="n">
-        <v>186.1779288877858</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="D27" t="n">
-        <v>102.5118473753563</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="E27" t="n">
         <v>7.5231081468942</v>
@@ -6308,16 +6308,16 @@
         <v>7.5231081468942</v>
       </c>
       <c r="K27" t="n">
-        <v>32.77251759274191</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="L27" t="n">
-        <v>96.83311631419517</v>
+        <v>71.58370686834749</v>
       </c>
       <c r="M27" t="n">
-        <v>184.1707777908663</v>
+        <v>158.3809078524846</v>
       </c>
       <c r="N27" t="n">
-        <v>251.4793711703004</v>
+        <v>251.4793711703003</v>
       </c>
       <c r="O27" t="n">
         <v>327.6157467215365</v>
@@ -6338,19 +6338,19 @@
         <v>281.1666681162479</v>
       </c>
       <c r="U27" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="V27" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W27" t="n">
-        <v>281.1666681162479</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="X27" t="n">
-        <v>281.1666681162479</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="Y27" t="n">
-        <v>281.1666681162479</v>
+        <v>7.5231081468942</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>281.1666681162479</v>
+        <v>197.5005866038184</v>
       </c>
       <c r="C28" t="n">
-        <v>186.1779288877858</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="D28" t="n">
-        <v>186.1779288877858</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="E28" t="n">
-        <v>91.18918965932363</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="F28" t="n">
-        <v>91.18918965932363</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="G28" t="n">
         <v>7.5231081468942</v>
@@ -6384,25 +6384,25 @@
         <v>7.5231081468942</v>
       </c>
       <c r="J28" t="n">
-        <v>7.5231081468942</v>
+        <v>19.57624763698252</v>
       </c>
       <c r="K28" t="n">
-        <v>100.6215714647099</v>
+        <v>112.6747109547982</v>
       </c>
       <c r="L28" t="n">
-        <v>193.7200347825257</v>
+        <v>205.773174272614</v>
       </c>
       <c r="M28" t="n">
-        <v>286.8184981003414</v>
+        <v>298.8716375904297</v>
       </c>
       <c r="N28" t="n">
-        <v>295.1854342898534</v>
+        <v>323.1938756386426</v>
       </c>
       <c r="O28" t="n">
-        <v>295.1854342898534</v>
+        <v>323.1938756386426</v>
       </c>
       <c r="P28" t="n">
-        <v>376.15540734471</v>
+        <v>323.1938756386426</v>
       </c>
       <c r="Q28" t="n">
         <v>376.15540734471</v>
@@ -6420,16 +6420,16 @@
         <v>376.15540734471</v>
       </c>
       <c r="V28" t="n">
-        <v>376.15540734471</v>
+        <v>292.4893258322805</v>
       </c>
       <c r="W28" t="n">
-        <v>281.1666681162479</v>
+        <v>197.5005866038184</v>
       </c>
       <c r="X28" t="n">
-        <v>281.1666681162479</v>
+        <v>197.5005866038184</v>
       </c>
       <c r="Y28" t="n">
-        <v>281.1666681162479</v>
+        <v>197.5005866038184</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="C29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="D29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="E29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="F29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="G29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="H29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="K29" t="n">
-        <v>33.66364674177134</v>
+        <v>33.66364674177161</v>
       </c>
       <c r="L29" t="n">
-        <v>90.07944158091777</v>
+        <v>90.07944158091792</v>
       </c>
       <c r="M29" t="n">
         <v>173.4380178380558</v>
@@ -6478,37 +6478,37 @@
         <v>261.144398453984</v>
       </c>
       <c r="O29" t="n">
-        <v>335.2951267986175</v>
+        <v>335.2951267986174</v>
       </c>
       <c r="P29" t="n">
         <v>376.1554073447101</v>
       </c>
       <c r="Q29" t="n">
-        <v>376.1554073447101</v>
+        <v>376.15540734471</v>
       </c>
       <c r="R29" t="n">
-        <v>376.1554073447101</v>
+        <v>376.15540734471</v>
       </c>
       <c r="S29" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="T29" t="n">
         <v>281.1666681162479</v>
       </c>
       <c r="U29" t="n">
+        <v>281.1666681162479</v>
+      </c>
+      <c r="V29" t="n">
         <v>186.1779288877858</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>91.18918965932363</v>
       </c>
-      <c r="W29" t="n">
-        <v>7.523108146894202</v>
-      </c>
       <c r="X29" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.5118473753564</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="C30" t="n">
-        <v>102.5118473753564</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="D30" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="E30" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="F30" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="G30" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="H30" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I30" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J30" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="K30" t="n">
         <v>32.77251759274192</v>
@@ -6551,43 +6551,43 @@
         <v>96.83311631419521</v>
       </c>
       <c r="M30" t="n">
-        <v>184.1707777908663</v>
+        <v>158.3809078524846</v>
       </c>
       <c r="N30" t="n">
-        <v>251.4793711703005</v>
+        <v>251.4793711703003</v>
       </c>
       <c r="O30" t="n">
-        <v>327.6157467215366</v>
+        <v>327.6157467215365</v>
       </c>
       <c r="P30" t="n">
-        <v>376.1554073447101</v>
+        <v>376.15540734471</v>
       </c>
       <c r="Q30" t="n">
-        <v>376.1554073447101</v>
+        <v>376.15540734471</v>
       </c>
       <c r="R30" t="n">
-        <v>376.1554073447101</v>
+        <v>376.15540734471</v>
       </c>
       <c r="S30" t="n">
-        <v>292.4893258322807</v>
+        <v>376.15540734471</v>
       </c>
       <c r="T30" t="n">
-        <v>292.4893258322807</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="U30" t="n">
-        <v>292.4893258322807</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="V30" t="n">
-        <v>292.4893258322807</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W30" t="n">
-        <v>197.5005866038185</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X30" t="n">
-        <v>102.5118473753564</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.5118473753564</v>
+        <v>91.18918965932363</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>186.1779288877858</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="C31" t="n">
-        <v>186.1779288877858</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="D31" t="n">
-        <v>102.5118473753564</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="E31" t="n">
-        <v>102.5118473753564</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="F31" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="G31" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="H31" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I31" t="n">
-        <v>7.523108146894202</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J31" t="n">
-        <v>7.523108146894202</v>
+        <v>19.57624763698252</v>
       </c>
       <c r="K31" t="n">
-        <v>100.62157146471</v>
+        <v>112.6747109547982</v>
       </c>
       <c r="L31" t="n">
-        <v>193.7200347825257</v>
+        <v>205.773174272614</v>
       </c>
       <c r="M31" t="n">
-        <v>286.8184981003415</v>
+        <v>230.0954123208268</v>
       </c>
       <c r="N31" t="n">
-        <v>295.1854342898535</v>
+        <v>323.1938756386426</v>
       </c>
       <c r="O31" t="n">
-        <v>295.1854342898535</v>
+        <v>323.1938756386426</v>
       </c>
       <c r="P31" t="n">
-        <v>376.1554073447101</v>
+        <v>323.1938756386426</v>
       </c>
       <c r="Q31" t="n">
-        <v>376.1554073447101</v>
+        <v>376.15540734471</v>
       </c>
       <c r="R31" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="S31" t="n">
-        <v>376.1554073447101</v>
+        <v>197.5005866038184</v>
       </c>
       <c r="T31" t="n">
-        <v>376.1554073447101</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="U31" t="n">
-        <v>281.1666681162479</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="V31" t="n">
-        <v>186.1779288877858</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="W31" t="n">
-        <v>186.1779288877858</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="X31" t="n">
-        <v>186.1779288877858</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.1779288877858</v>
+        <v>102.5118473753563</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>197.5005866038185</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="C32" t="n">
         <v>102.5118473753564</v>
@@ -6685,13 +6685,13 @@
         <v>102.5118473753564</v>
       </c>
       <c r="E32" t="n">
-        <v>102.5118473753564</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="F32" t="n">
-        <v>102.5118473753564</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="G32" t="n">
-        <v>102.5118473753564</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="H32" t="n">
         <v>7.523108146894202</v>
@@ -6703,13 +6703,13 @@
         <v>7.523108146894202</v>
       </c>
       <c r="K32" t="n">
-        <v>33.66364674177163</v>
+        <v>33.66364674177161</v>
       </c>
       <c r="L32" t="n">
-        <v>90.07944158091794</v>
+        <v>90.07944158091793</v>
       </c>
       <c r="M32" t="n">
-        <v>173.4380178380559</v>
+        <v>173.4380178380558</v>
       </c>
       <c r="N32" t="n">
         <v>261.144398453984</v>
@@ -6727,25 +6727,25 @@
         <v>376.1554073447101</v>
       </c>
       <c r="S32" t="n">
-        <v>376.1554073447101</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="T32" t="n">
-        <v>376.1554073447101</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="U32" t="n">
-        <v>376.1554073447101</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="V32" t="n">
-        <v>376.1554073447101</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="W32" t="n">
-        <v>376.1554073447101</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="X32" t="n">
-        <v>376.1554073447101</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="Y32" t="n">
-        <v>281.1666681162479</v>
+        <v>102.5118473753564</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>317.0871447094355</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="C33" t="n">
-        <v>222.0984054809733</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="D33" t="n">
-        <v>127.1096662525112</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="E33" t="n">
-        <v>127.1096662525112</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="F33" t="n">
-        <v>127.1096662525112</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="G33" t="n">
-        <v>32.12092702404902</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="H33" t="n">
-        <v>32.12092702404902</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="I33" t="n">
         <v>7.523108146894202</v>
@@ -6791,10 +6791,10 @@
         <v>184.1707777908663</v>
       </c>
       <c r="N33" t="n">
-        <v>251.4793711703005</v>
+        <v>277.2692411086821</v>
       </c>
       <c r="O33" t="n">
-        <v>327.6157467215366</v>
+        <v>353.4056166599182</v>
       </c>
       <c r="P33" t="n">
         <v>376.1554073447101</v>
@@ -6806,25 +6806,25 @@
         <v>376.1554073447101</v>
       </c>
       <c r="S33" t="n">
-        <v>317.0871447094355</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="T33" t="n">
-        <v>317.0871447094355</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="U33" t="n">
-        <v>317.0871447094355</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="V33" t="n">
-        <v>317.0871447094355</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="W33" t="n">
-        <v>317.0871447094355</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="X33" t="n">
-        <v>317.0871447094355</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="Y33" t="n">
-        <v>317.0871447094355</v>
+        <v>292.4893258322807</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="C34" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="D34" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="E34" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="F34" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="G34" t="n">
         <v>7.523108146894202</v>
@@ -6858,22 +6858,22 @@
         <v>7.523108146894202</v>
       </c>
       <c r="J34" t="n">
-        <v>19.57624763698252</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="K34" t="n">
-        <v>112.6747109547983</v>
+        <v>100.62157146471</v>
       </c>
       <c r="L34" t="n">
-        <v>205.773174272614</v>
+        <v>193.7200347825257</v>
       </c>
       <c r="M34" t="n">
-        <v>298.8716375904298</v>
+        <v>286.8184981003415</v>
       </c>
       <c r="N34" t="n">
-        <v>307.2385737799418</v>
+        <v>295.1854342898535</v>
       </c>
       <c r="O34" t="n">
-        <v>376.1554073447101</v>
+        <v>295.1854342898535</v>
       </c>
       <c r="P34" t="n">
         <v>376.1554073447101</v>
@@ -6891,16 +6891,16 @@
         <v>376.1554073447101</v>
       </c>
       <c r="U34" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="V34" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="W34" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X34" t="n">
-        <v>186.1779288877858</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="Y34" t="n">
         <v>91.18918965932363</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.5118473753564</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="C35" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="D35" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="E35" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="F35" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="G35" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="H35" t="n">
-        <v>7.523108146894202</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="I35" t="n">
         <v>7.523108146894202</v>
@@ -6952,7 +6952,7 @@
         <v>261.144398453984</v>
       </c>
       <c r="O35" t="n">
-        <v>335.2951267986174</v>
+        <v>335.2951267986175</v>
       </c>
       <c r="P35" t="n">
         <v>376.1554073447101</v>
@@ -6970,19 +6970,19 @@
         <v>281.1666681162479</v>
       </c>
       <c r="U35" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="V35" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1666681162479</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="X35" t="n">
-        <v>281.1666681162479</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="Y35" t="n">
-        <v>186.1779288877858</v>
+        <v>91.18918965932363</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.523108146894202</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="C36" t="n">
-        <v>7.523108146894202</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="D36" t="n">
-        <v>7.523108146894202</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="E36" t="n">
-        <v>7.523108146894202</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="F36" t="n">
-        <v>7.523108146894202</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="G36" t="n">
-        <v>7.523108146894202</v>
+        <v>113.4646700330945</v>
       </c>
       <c r="H36" t="n">
-        <v>7.523108146894202</v>
+        <v>32.12092702404902</v>
       </c>
       <c r="I36" t="n">
         <v>7.523108146894202</v>
@@ -7019,16 +7019,16 @@
         <v>7.523108146894202</v>
       </c>
       <c r="K36" t="n">
-        <v>7.523108146894202</v>
+        <v>32.77251759274192</v>
       </c>
       <c r="L36" t="n">
-        <v>71.0432463758136</v>
+        <v>96.83311631419521</v>
       </c>
       <c r="M36" t="n">
-        <v>158.3809078524847</v>
+        <v>184.1707777908663</v>
       </c>
       <c r="N36" t="n">
-        <v>251.4793711703005</v>
+        <v>277.2692411086821</v>
       </c>
       <c r="O36" t="n">
         <v>327.6157467215366</v>
@@ -7043,25 +7043,25 @@
         <v>376.1554073447101</v>
       </c>
       <c r="S36" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="T36" t="n">
-        <v>292.4893258322807</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="U36" t="n">
-        <v>197.5005866038185</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="V36" t="n">
-        <v>102.5118473753564</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W36" t="n">
-        <v>7.523108146894202</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X36" t="n">
-        <v>7.523108146894202</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.523108146894202</v>
+        <v>186.1779288877858</v>
       </c>
     </row>
     <row r="37">
@@ -7095,52 +7095,52 @@
         <v>7.523108146894202</v>
       </c>
       <c r="J37" t="n">
-        <v>19.57624763698252</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="K37" t="n">
-        <v>112.6747109547983</v>
+        <v>96.86001739126287</v>
       </c>
       <c r="L37" t="n">
-        <v>205.773174272614</v>
+        <v>189.9584807090786</v>
       </c>
       <c r="M37" t="n">
-        <v>230.0954123208269</v>
+        <v>283.0569440268944</v>
       </c>
       <c r="N37" t="n">
-        <v>323.1938756386427</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="O37" t="n">
-        <v>323.1938756386427</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="P37" t="n">
-        <v>323.1938756386427</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="Q37" t="n">
         <v>376.1554073447101</v>
       </c>
       <c r="R37" t="n">
-        <v>281.1666681162479</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="S37" t="n">
-        <v>186.1779288877858</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="T37" t="n">
+        <v>376.1554073447101</v>
+      </c>
+      <c r="U37" t="n">
+        <v>292.4893258322807</v>
+      </c>
+      <c r="V37" t="n">
+        <v>197.5005866038185</v>
+      </c>
+      <c r="W37" t="n">
+        <v>197.5005866038185</v>
+      </c>
+      <c r="X37" t="n">
+        <v>197.5005866038185</v>
+      </c>
+      <c r="Y37" t="n">
         <v>102.5118473753564</v>
-      </c>
-      <c r="U37" t="n">
-        <v>102.5118473753564</v>
-      </c>
-      <c r="V37" t="n">
-        <v>102.5118473753564</v>
-      </c>
-      <c r="W37" t="n">
-        <v>7.523108146894202</v>
-      </c>
-      <c r="X37" t="n">
-        <v>7.523108146894202</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>7.523108146894202</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>102.5118473753564</v>
       </c>
       <c r="G38" t="n">
-        <v>7.523108146894202</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="H38" t="n">
         <v>7.523108146894202</v>
@@ -7183,7 +7183,7 @@
         <v>90.07944158091793</v>
       </c>
       <c r="M38" t="n">
-        <v>173.4380178380559</v>
+        <v>173.4380178380558</v>
       </c>
       <c r="N38" t="n">
         <v>261.144398453984</v>
@@ -7207,16 +7207,16 @@
         <v>281.1666681162479</v>
       </c>
       <c r="U38" t="n">
+        <v>281.1666681162479</v>
+      </c>
+      <c r="V38" t="n">
+        <v>281.1666681162479</v>
+      </c>
+      <c r="W38" t="n">
+        <v>281.1666681162479</v>
+      </c>
+      <c r="X38" t="n">
         <v>186.1779288877858</v>
-      </c>
-      <c r="V38" t="n">
-        <v>186.1779288877858</v>
-      </c>
-      <c r="W38" t="n">
-        <v>102.5118473753564</v>
-      </c>
-      <c r="X38" t="n">
-        <v>102.5118473753564</v>
       </c>
       <c r="Y38" t="n">
         <v>102.5118473753564</v>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>376.1554073447101</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="C39" t="n">
-        <v>281.1666681162479</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="D39" t="n">
-        <v>278.8443296128639</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="E39" t="n">
-        <v>278.8443296128639</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="F39" t="n">
-        <v>183.8555903844018</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="G39" t="n">
-        <v>88.86685115593967</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="H39" t="n">
         <v>7.523108146894202</v>
@@ -7256,19 +7256,19 @@
         <v>7.523108146894202</v>
       </c>
       <c r="K39" t="n">
-        <v>7.523108146894202</v>
+        <v>32.77251759274192</v>
       </c>
       <c r="L39" t="n">
-        <v>71.0432463758136</v>
+        <v>96.83311631419521</v>
       </c>
       <c r="M39" t="n">
-        <v>158.3809078524847</v>
+        <v>184.1707777908663</v>
       </c>
       <c r="N39" t="n">
-        <v>251.4793711703005</v>
+        <v>277.2692411086821</v>
       </c>
       <c r="O39" t="n">
-        <v>327.6157467215366</v>
+        <v>353.4056166599182</v>
       </c>
       <c r="P39" t="n">
         <v>376.1554073447101</v>
@@ -7286,19 +7286,19 @@
         <v>376.1554073447101</v>
       </c>
       <c r="U39" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="V39" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="W39" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="X39" t="n">
-        <v>376.1554073447101</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="Y39" t="n">
-        <v>376.1554073447101</v>
+        <v>197.5005866038185</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.523108146894202</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="C40" t="n">
-        <v>7.523108146894202</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="D40" t="n">
-        <v>7.523108146894202</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="E40" t="n">
-        <v>7.523108146894202</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="F40" t="n">
         <v>7.523108146894202</v>
@@ -7335,16 +7335,16 @@
         <v>7.523108146894202</v>
       </c>
       <c r="K40" t="n">
+        <v>7.523108146894202</v>
+      </c>
+      <c r="L40" t="n">
         <v>100.62157146471</v>
       </c>
-      <c r="L40" t="n">
-        <v>189.9584807090786</v>
-      </c>
       <c r="M40" t="n">
+        <v>193.7200347825257</v>
+      </c>
+      <c r="N40" t="n">
         <v>283.0569440268944</v>
-      </c>
-      <c r="N40" t="n">
-        <v>376.1554073447101</v>
       </c>
       <c r="O40" t="n">
         <v>376.1554073447101</v>
@@ -7356,28 +7356,28 @@
         <v>376.1554073447101</v>
       </c>
       <c r="R40" t="n">
-        <v>376.1554073447101</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="S40" t="n">
-        <v>292.4893258322807</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="T40" t="n">
+        <v>281.1666681162479</v>
+      </c>
+      <c r="U40" t="n">
+        <v>281.1666681162479</v>
+      </c>
+      <c r="V40" t="n">
+        <v>281.1666681162479</v>
+      </c>
+      <c r="W40" t="n">
         <v>197.5005866038185</v>
       </c>
-      <c r="U40" t="n">
-        <v>102.5118473753564</v>
-      </c>
-      <c r="V40" t="n">
-        <v>7.523108146894202</v>
-      </c>
-      <c r="W40" t="n">
-        <v>7.523108146894202</v>
-      </c>
       <c r="X40" t="n">
-        <v>7.523108146894202</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.523108146894202</v>
+        <v>197.5005866038185</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102.5118473753563</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="C41" t="n">
-        <v>102.5118473753563</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="D41" t="n">
-        <v>102.5118473753563</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="E41" t="n">
-        <v>102.5118473753563</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="F41" t="n">
-        <v>102.5118473753563</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="G41" t="n">
-        <v>102.5118473753563</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="H41" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="I41" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="J41" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="K41" t="n">
         <v>33.66364674177161</v>
       </c>
       <c r="L41" t="n">
-        <v>90.07944158091789</v>
+        <v>90.07944158091793</v>
       </c>
       <c r="M41" t="n">
         <v>173.4380178380558</v>
@@ -7426,37 +7426,37 @@
         <v>261.144398453984</v>
       </c>
       <c r="O41" t="n">
-        <v>335.2951267986174</v>
+        <v>335.2951267986175</v>
       </c>
       <c r="P41" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="Q41" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="R41" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="S41" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="T41" t="n">
-        <v>281.1666681162479</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="U41" t="n">
-        <v>281.1666681162479</v>
+        <v>292.4893258322807</v>
       </c>
       <c r="V41" t="n">
-        <v>186.1779288877858</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="W41" t="n">
-        <v>186.1779288877858</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="X41" t="n">
-        <v>102.5118473753563</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.5118473753563</v>
+        <v>197.5005866038185</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.5231081468942</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="C42" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="D42" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="E42" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="F42" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="G42" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="H42" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="I42" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="J42" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="K42" t="n">
         <v>32.77251759274192</v>
@@ -7499,43 +7499,43 @@
         <v>96.83311631419521</v>
       </c>
       <c r="M42" t="n">
-        <v>184.1707777908663</v>
+        <v>158.3809078524847</v>
       </c>
       <c r="N42" t="n">
-        <v>277.2692411086821</v>
+        <v>251.4793711703005</v>
       </c>
       <c r="O42" t="n">
-        <v>353.4056166599182</v>
+        <v>327.6157467215366</v>
       </c>
       <c r="P42" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="Q42" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="R42" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="S42" t="n">
-        <v>376.15540734471</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="T42" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="U42" t="n">
         <v>186.1779288877858</v>
       </c>
       <c r="V42" t="n">
+        <v>186.1779288877858</v>
+      </c>
+      <c r="W42" t="n">
+        <v>186.1779288877858</v>
+      </c>
+      <c r="X42" t="n">
         <v>91.18918965932363</v>
       </c>
-      <c r="W42" t="n">
-        <v>7.5231081468942</v>
-      </c>
-      <c r="X42" t="n">
-        <v>7.5231081468942</v>
-      </c>
       <c r="Y42" t="n">
-        <v>7.5231081468942</v>
+        <v>91.18918965932363</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.5231081468942</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="C43" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="D43" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="E43" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="F43" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="G43" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="H43" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="I43" t="n">
-        <v>7.5231081468942</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="J43" t="n">
-        <v>19.57624763698252</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="K43" t="n">
-        <v>19.57624763698252</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="L43" t="n">
-        <v>20.73434647358765</v>
+        <v>100.62157146471</v>
       </c>
       <c r="M43" t="n">
-        <v>43.89848568519535</v>
+        <v>193.7200347825257</v>
       </c>
       <c r="N43" t="n">
-        <v>136.9969490030111</v>
+        <v>283.0569440268944</v>
       </c>
       <c r="O43" t="n">
-        <v>230.0954123208268</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="P43" t="n">
-        <v>323.1938756386426</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="Q43" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="R43" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="S43" t="n">
-        <v>376.15540734471</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="T43" t="n">
-        <v>376.15540734471</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="U43" t="n">
-        <v>281.1666681162479</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="V43" t="n">
-        <v>186.1779288877858</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="W43" t="n">
         <v>91.18918965932363</v>
       </c>
       <c r="X43" t="n">
-        <v>7.5231081468942</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.5231081468942</v>
+        <v>91.18918965932363</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.3208061110014</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="C44" t="n">
-        <v>132.8741907933637</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="D44" t="n">
-        <v>132.8741907933637</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="E44" t="n">
-        <v>132.8741907933637</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="F44" t="n">
-        <v>132.8741907933637</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="G44" t="n">
-        <v>9.751330532648632</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="H44" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="I44" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="J44" t="n">
-        <v>13.67191254441036</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="K44" t="n">
-        <v>52.52788553388336</v>
+        <v>33.66364674177161</v>
       </c>
       <c r="L44" t="n">
-        <v>124.7183011151471</v>
+        <v>90.07944158091793</v>
       </c>
       <c r="M44" t="n">
-        <v>225.6291823919091</v>
+        <v>173.4380178380558</v>
       </c>
       <c r="N44" t="n">
-        <v>331.1718826730488</v>
+        <v>261.144398453984</v>
       </c>
       <c r="O44" t="n">
-        <v>422.1649418990627</v>
+        <v>335.2951267986175</v>
       </c>
       <c r="P44" t="n">
-        <v>477.3997621913171</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="Q44" t="n">
-        <v>487.5665266324316</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="R44" t="n">
-        <v>487.5665266324316</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="S44" t="n">
-        <v>487.5665266324316</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="T44" t="n">
-        <v>487.5665266324316</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="U44" t="n">
-        <v>487.5665266324316</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="V44" t="n">
-        <v>487.5665266324316</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W44" t="n">
-        <v>487.5665266324316</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X44" t="n">
-        <v>364.4436663717165</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.3208061110014</v>
+        <v>102.5118473753564</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>255.9970510540787</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="C45" t="n">
-        <v>132.8741907933637</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="D45" t="n">
-        <v>132.8741907933637</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="E45" t="n">
-        <v>9.751330532648632</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="F45" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="G45" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="H45" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="I45" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="J45" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="K45" t="n">
-        <v>43.63722270065762</v>
+        <v>32.77251759274192</v>
       </c>
       <c r="L45" t="n">
-        <v>119.3106382502224</v>
+        <v>96.83311631419521</v>
       </c>
       <c r="M45" t="n">
-        <v>220.199909224116</v>
+        <v>184.1707777908663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.125038190529</v>
+        <v>277.2692411086821</v>
       </c>
       <c r="O45" t="n">
-        <v>421.9866026009625</v>
+        <v>353.4056166599182</v>
       </c>
       <c r="P45" t="n">
-        <v>480.7393491561089</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="Q45" t="n">
-        <v>487.5665266324316</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="R45" t="n">
-        <v>487.5665266324316</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="S45" t="n">
-        <v>487.5665266324316</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="T45" t="n">
-        <v>364.4436663717165</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="U45" t="n">
-        <v>364.4436663717165</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="V45" t="n">
-        <v>364.4436663717165</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="W45" t="n">
-        <v>255.9970510540787</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X45" t="n">
-        <v>255.9970510540787</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="Y45" t="n">
-        <v>255.9970510540787</v>
+        <v>186.1779288877858</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23.4951020871173</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="C46" t="n">
-        <v>23.4951020871173</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="D46" t="n">
-        <v>23.4951020871173</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="E46" t="n">
-        <v>23.4951020871173</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="F46" t="n">
-        <v>23.4951020871173</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="G46" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="H46" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="I46" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="J46" t="n">
-        <v>9.751330532648632</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="K46" t="n">
-        <v>130.4240458741754</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="L46" t="n">
-        <v>138.2485012070229</v>
+        <v>100.62157146471</v>
       </c>
       <c r="M46" t="n">
-        <v>258.9212165485498</v>
+        <v>193.7200347825257</v>
       </c>
       <c r="N46" t="n">
-        <v>366.8938112909048</v>
+        <v>286.8184981003415</v>
       </c>
       <c r="O46" t="n">
-        <v>487.5665266324316</v>
+        <v>286.8184981003415</v>
       </c>
       <c r="P46" t="n">
-        <v>487.5665266324316</v>
+        <v>323.1938756386427</v>
       </c>
       <c r="Q46" t="n">
-        <v>487.5665266324316</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="R46" t="n">
-        <v>392.8636828692625</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="S46" t="n">
-        <v>392.8636828692625</v>
+        <v>376.1554073447101</v>
       </c>
       <c r="T46" t="n">
-        <v>392.8636828692625</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="U46" t="n">
-        <v>392.8636828692625</v>
+        <v>197.5005866038185</v>
       </c>
       <c r="V46" t="n">
-        <v>269.7408226085474</v>
+        <v>102.5118473753564</v>
       </c>
       <c r="W46" t="n">
-        <v>269.7408226085474</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="X46" t="n">
-        <v>146.6179623478324</v>
+        <v>7.523108146894202</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.4951020871173</v>
+        <v>7.523108146894202</v>
       </c>
     </row>
   </sheetData>
@@ -8458,10 +8458,10 @@
         <v>65.01946517481471</v>
       </c>
       <c r="L8" t="n">
-        <v>56.4339664610682</v>
+        <v>56.43396646106821</v>
       </c>
       <c r="M8" t="n">
-        <v>42.00059636060509</v>
+        <v>42.0005963606051</v>
       </c>
       <c r="N8" t="n">
         <v>39.65094179247474</v>
@@ -8470,7 +8470,7 @@
         <v>46.19673452270656</v>
       </c>
       <c r="P8" t="n">
-        <v>62.08001639703511</v>
+        <v>62.08001639703512</v>
       </c>
       <c r="Q8" t="n">
         <v>78.24807792626756</v>
@@ -8531,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>51.43211845760855</v>
+        <v>51.43211845760856</v>
       </c>
       <c r="K9" t="n">
-        <v>36.59190862205906</v>
+        <v>36.59190862205907</v>
       </c>
       <c r="L9" t="n">
         <v>18.78854721703357</v>
       </c>
       <c r="M9" t="n">
-        <v>9.216293543178466</v>
+        <v>9.21629354317848</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>14.58875442338393</v>
       </c>
       <c r="P9" t="n">
-        <v>24.40218892352032</v>
+        <v>24.40218892352033</v>
       </c>
       <c r="Q9" t="n">
         <v>49.08744703089221</v>
@@ -8616,7 +8616,7 @@
         <v>51.88619524178843</v>
       </c>
       <c r="L10" t="n">
-        <v>46.76134641422896</v>
+        <v>46.76134641422897</v>
       </c>
       <c r="M10" t="n">
         <v>47.16400664275908</v>
@@ -8625,10 +8625,10 @@
         <v>40.88357032611205</v>
       </c>
       <c r="O10" t="n">
-        <v>51.0994709558466</v>
+        <v>51.09947095584661</v>
       </c>
       <c r="P10" t="n">
-        <v>56.23986070246484</v>
+        <v>56.23986070246485</v>
       </c>
       <c r="Q10" t="n">
         <v>75.43459031707346</v>
@@ -8692,7 +8692,7 @@
         <v>45.30876821055361</v>
       </c>
       <c r="K11" t="n">
-        <v>34.59292991576666</v>
+        <v>34.59292991576665</v>
       </c>
       <c r="L11" t="n">
         <v>18.68715897392866</v>
@@ -8710,7 +8710,7 @@
         <v>27.68343765293218</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.41767977011631</v>
+        <v>52.41767977011629</v>
       </c>
       <c r="R11" t="n">
         <v>86.56775819371971</v>
@@ -8859,13 +8859,13 @@
         <v>30.34506479299962</v>
       </c>
       <c r="N13" t="n">
-        <v>24.46454532135644</v>
+        <v>24.46454532135643</v>
       </c>
       <c r="O13" t="n">
         <v>35.9338438677494</v>
       </c>
       <c r="P13" t="n">
-        <v>43.26304678555946</v>
+        <v>43.26304678555945</v>
       </c>
       <c r="Q13" t="n">
         <v>66.45011700163332</v>
@@ -8929,7 +8929,7 @@
         <v>45.30876821055361</v>
       </c>
       <c r="K14" t="n">
-        <v>34.59292991576666</v>
+        <v>34.59292991576665</v>
       </c>
       <c r="L14" t="n">
         <v>18.68715897392866</v>
@@ -8947,7 +8947,7 @@
         <v>27.68343765293218</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.41767977011631</v>
+        <v>52.41767977011629</v>
       </c>
       <c r="R14" t="n">
         <v>86.56775819371971</v>
@@ -9096,13 +9096,13 @@
         <v>30.34506479299962</v>
       </c>
       <c r="N16" t="n">
-        <v>24.46454532135644</v>
+        <v>24.46454532135643</v>
       </c>
       <c r="O16" t="n">
         <v>35.9338438677494</v>
       </c>
       <c r="P16" t="n">
-        <v>43.26304678555946</v>
+        <v>43.26304678555945</v>
       </c>
       <c r="Q16" t="n">
         <v>66.45011700163332</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.66398046922554</v>
+        <v>12.08657561115201</v>
       </c>
       <c r="K17" t="n">
-        <v>11.14544858436605</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>25.51823563665064</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.101692999368304</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>10.75722323028606</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.176537307564445</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.51210151769618</v>
+        <v>10.1475662065159</v>
       </c>
       <c r="R17" t="n">
-        <v>74.98883187131496</v>
+        <v>61.97954857800036</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>30.02281559133009</v>
+        <v>19.55383367513985</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.16138275253149</v>
+        <v>6.016763204283919</v>
       </c>
       <c r="R18" t="n">
-        <v>60.2419881239143</v>
+        <v>53.36213537772846</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>29.81410061865641</v>
+        <v>19.02101870911099</v>
       </c>
       <c r="L19" t="n">
-        <v>18.51666445282825</v>
+        <v>65.25302299954899</v>
       </c>
       <c r="M19" t="n">
-        <v>17.38394971109511</v>
+        <v>75.69496350541827</v>
       </c>
       <c r="N19" t="n">
-        <v>43.46689824517222</v>
+        <v>70.46888731227652</v>
       </c>
       <c r="O19" t="n">
-        <v>60.16656686777766</v>
+        <v>11.11607778447969</v>
       </c>
       <c r="P19" t="n">
-        <v>69.18252628061722</v>
+        <v>94.90038958094695</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.44619824987994</v>
+        <v>51.74749007900679</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.66398046922554</v>
+        <v>12.08657561115201</v>
       </c>
       <c r="K20" t="n">
-        <v>11.14544858436605</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.45740124385307</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>37.09628793001639</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.51210151769618</v>
+        <v>10.1475662065159</v>
       </c>
       <c r="R20" t="n">
-        <v>74.98883187131496</v>
+        <v>61.97954857800036</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>30.02281559133009</v>
+        <v>19.55383367513985</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.16138275253149</v>
+        <v>6.016763204283919</v>
       </c>
       <c r="R21" t="n">
-        <v>60.2419881239143</v>
+        <v>53.36213537772846</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>65.73385124110835</v>
+        <v>91.89424779031144</v>
       </c>
       <c r="L22" t="n">
-        <v>18.51666445282825</v>
+        <v>77.57846461785452</v>
       </c>
       <c r="M22" t="n">
-        <v>17.38394971109511</v>
+        <v>63.36952188711275</v>
       </c>
       <c r="N22" t="n">
-        <v>43.46689824517222</v>
+        <v>70.46888731227652</v>
       </c>
       <c r="O22" t="n">
-        <v>60.16656686777766</v>
+        <v>11.11607778447969</v>
       </c>
       <c r="P22" t="n">
-        <v>69.18252628061722</v>
+        <v>22.02716049974649</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.526447627428</v>
+        <v>51.74749007900679</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.29764808962182</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>14.42991480047168</v>
+        <v>108.4687666366492</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>92.86905503152585</v>
       </c>
       <c r="M25" t="n">
         <v>90.66618839680631</v>
       </c>
       <c r="N25" t="n">
-        <v>85.5874011397007</v>
+        <v>69.61296319673561</v>
       </c>
       <c r="O25" t="n">
-        <v>99.56944577312011</v>
+        <v>5.530593936942608</v>
       </c>
       <c r="P25" t="n">
-        <v>52.82082293561879</v>
+        <v>17.24781414602683</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9350150692923</v>
+        <v>48.43851839649689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.60959240802579</v>
+        <v>4.609592408025776</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6342588544005991</v>
+        <v>0.6342588544005707</v>
       </c>
       <c r="R26" t="n">
-        <v>56.44572868511972</v>
+        <v>56.4457286851197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>15.10059370182073</v>
+        <v>15.10059370182071</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.29764808962182</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
         <v>108.4687666366492</v>
@@ -10041,19 +10041,19 @@
         <v>92.86905503152585</v>
       </c>
       <c r="M28" t="n">
-        <v>90.66618839680633</v>
+        <v>90.66618839680631</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>16.11646652394023</v>
       </c>
       <c r="O28" t="n">
-        <v>5.530593936942623</v>
+        <v>5.530593936942608</v>
       </c>
       <c r="P28" t="n">
-        <v>99.03566571658907</v>
+        <v>17.24781414602683</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.4385183964969</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.29764808962182</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
         <v>108.4687666366492</v>
       </c>
       <c r="L31" t="n">
-        <v>92.86905503152587</v>
+        <v>92.86905503152585</v>
       </c>
       <c r="M31" t="n">
-        <v>90.66618839680633</v>
+        <v>21.19525378104583</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>85.58740113970072</v>
       </c>
       <c r="O31" t="n">
         <v>5.530593936942608</v>
       </c>
       <c r="P31" t="n">
-        <v>99.03566571658905</v>
+        <v>17.24781414602683</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.43851839649689</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.4725364634484</v>
+        <v>40.29764808962182</v>
       </c>
       <c r="K34" t="n">
         <v>108.4687666366492</v>
@@ -10521,10 +10521,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>75.14355713367826</v>
+        <v>5.530593936942608</v>
       </c>
       <c r="P34" t="n">
-        <v>17.24781414602683</v>
+        <v>99.03566571658907</v>
       </c>
       <c r="Q34" t="n">
         <v>48.43851839649689</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.4725364634484</v>
+        <v>40.29764808962182</v>
       </c>
       <c r="K37" t="n">
-        <v>108.4687666366492</v>
+        <v>104.6692170675107</v>
       </c>
       <c r="L37" t="n">
-        <v>92.86905503152587</v>
+        <v>92.86905503152589</v>
       </c>
       <c r="M37" t="n">
-        <v>21.19525378104588</v>
+        <v>90.66618839680633</v>
       </c>
       <c r="N37" t="n">
-        <v>85.58740113970073</v>
+        <v>85.58740113970072</v>
       </c>
       <c r="O37" t="n">
         <v>5.530593936942608</v>
@@ -10764,7 +10764,7 @@
         <v>17.24781414602683</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>48.43851839649689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,19 +10983,19 @@
         <v>40.29764808962182</v>
       </c>
       <c r="K40" t="n">
-        <v>108.4687666366492</v>
+        <v>14.42991480047168</v>
       </c>
       <c r="L40" t="n">
-        <v>89.06950546238741</v>
+        <v>92.86905503152587</v>
       </c>
       <c r="M40" t="n">
         <v>90.66618839680633</v>
       </c>
       <c r="N40" t="n">
-        <v>85.58740113970073</v>
+        <v>81.78785157056225</v>
       </c>
       <c r="O40" t="n">
-        <v>5.530593936942608</v>
+        <v>99.56944577312014</v>
       </c>
       <c r="P40" t="n">
         <v>17.24781414602683</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>40.29764808962182</v>
       </c>
       <c r="K43" t="n">
         <v>14.42991480047168</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>92.86905503152587</v>
       </c>
       <c r="M43" t="n">
-        <v>20.02545697639415</v>
+        <v>90.66618839680633</v>
       </c>
       <c r="N43" t="n">
-        <v>85.5874011397007</v>
+        <v>81.78785157056225</v>
       </c>
       <c r="O43" t="n">
-        <v>99.56944577312011</v>
+        <v>99.56944577312014</v>
       </c>
       <c r="P43" t="n">
-        <v>111.2866659822043</v>
+        <v>17.24781414602683</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>48.43851839649689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.609592408025776</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.6342588544005707</v>
       </c>
       <c r="R44" t="n">
-        <v>50.1031173608315</v>
+        <v>56.4457286851197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>9.996493671227981</v>
+        <v>15.10059370182071</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.08138215850111</v>
+        <v>50.43562012484765</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>37.09549975836523</v>
+        <v>40.29764808962182</v>
       </c>
       <c r="K46" t="n">
-        <v>131.0594330892264</v>
+        <v>14.42991480047168</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>92.86905503152587</v>
       </c>
       <c r="M46" t="n">
-        <v>111.4192326297104</v>
+        <v>90.66618839680633</v>
       </c>
       <c r="N46" t="n">
-        <v>93.68085657059447</v>
+        <v>85.58740113970073</v>
       </c>
       <c r="O46" t="n">
-        <v>121.0203994082976</v>
+        <v>5.530593936942608</v>
       </c>
       <c r="P46" t="n">
-        <v>11.76994589361102</v>
+        <v>53.99061974027049</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.64592635853823</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23120,7 +23120,7 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I9" t="n">
-        <v>37.59182348086897</v>
+        <v>37.59182348086898</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>83.00822261809724</v>
       </c>
       <c r="I12" t="n">
-        <v>33.18546864354516</v>
+        <v>33.18546864354515</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>83.00822261809724</v>
       </c>
       <c r="I15" t="n">
-        <v>33.18546864354516</v>
+        <v>33.18546864354515</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>407.9941069995947</v>
+        <v>407.7870063959562</v>
       </c>
       <c r="H17" t="n">
-        <v>278.5837127021534</v>
+        <v>308.100859993395</v>
       </c>
       <c r="I17" t="n">
-        <v>61.0542446603902</v>
+        <v>88.98974926106416</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>141.2173044442944</v>
+        <v>63.62477035767883</v>
       </c>
       <c r="T17" t="n">
-        <v>216.7260371756751</v>
+        <v>215.8194542832471</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1122405931648</v>
+        <v>253.0956725448737</v>
       </c>
       <c r="V17" t="n">
-        <v>302.7659905810648</v>
+        <v>265.8125121223163</v>
       </c>
       <c r="W17" t="n">
-        <v>331.3692940589435</v>
+        <v>294.4158156001949</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>321.3713388415524</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23813,25 +23813,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>113.2279375130568</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>92.86832708228252</v>
+        <v>55.91484862353401</v>
       </c>
       <c r="E18" t="n">
-        <v>99.1622753577692</v>
+        <v>62.2087968990207</v>
       </c>
       <c r="F18" t="n">
-        <v>121.3391884337385</v>
+        <v>59.00074788097817</v>
       </c>
       <c r="G18" t="n">
-        <v>118.3043646206254</v>
+        <v>45.32032694758189</v>
       </c>
       <c r="H18" t="n">
-        <v>82.05570981277423</v>
+        <v>80.98553209681624</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>25.97469634924188</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>123.2751796797921</v>
+        <v>121.2169586865669</v>
       </c>
       <c r="T18" t="n">
-        <v>172.9775181442987</v>
+        <v>172.5308817587558</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9260082612874</v>
+        <v>207.9187182223504</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>110.4827094231878</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23904,13 +23904,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1063414608336</v>
+        <v>166.0134432597343</v>
       </c>
       <c r="H19" t="n">
-        <v>149.7879644472162</v>
+        <v>148.9620149865326</v>
       </c>
       <c r="I19" t="n">
-        <v>117.7744934041466</v>
+        <v>42.10756205715768</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.82640866095417</v>
+        <v>24.69588926913745</v>
       </c>
       <c r="S19" t="n">
-        <v>192.6812454004474</v>
+        <v>191.0622831140156</v>
       </c>
       <c r="T19" t="n">
-        <v>231.3743086467557</v>
+        <v>230.9773799693311</v>
       </c>
       <c r="U19" t="n">
-        <v>250.9209144794961</v>
+        <v>282.5539636531464</v>
       </c>
       <c r="V19" t="n">
-        <v>227.3998011049321</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>244.5773474256822</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>167.5527788201254</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,7 +23974,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>345.666966873047</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23983,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>407.9941069995947</v>
+        <v>407.7870063959562</v>
       </c>
       <c r="H20" t="n">
-        <v>310.221829050409</v>
+        <v>308.100859993395</v>
       </c>
       <c r="I20" t="n">
-        <v>96.97399528284214</v>
+        <v>88.98974926106416</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>105.2975538218424</v>
+        <v>63.62477035767883</v>
       </c>
       <c r="T20" t="n">
-        <v>180.8062865532232</v>
+        <v>151.6327141085257</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1122405931648</v>
+        <v>180.2224434636732</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24034,10 +24034,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>312.6848499350733</v>
       </c>
       <c r="Y20" t="n">
-        <v>360.8876856403492</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.3586204740998</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>113.2279375130568</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24062,13 +24062,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.3043646206254</v>
+        <v>118.1935560287823</v>
       </c>
       <c r="H21" t="n">
-        <v>82.05570981277423</v>
+        <v>8.112303015615794</v>
       </c>
       <c r="I21" t="n">
-        <v>29.78981672629463</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>123.2751796797921</v>
+        <v>121.2169586865669</v>
       </c>
       <c r="T21" t="n">
-        <v>141.339401796043</v>
+        <v>172.5308817587558</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9260082612874</v>
+        <v>169.7066743968709</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24113,10 +24113,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>114.540777792288</v>
       </c>
       <c r="Y21" t="n">
-        <v>141.6013241327959</v>
+        <v>104.6478456740474</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>110.4827094231878</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24141,13 +24141,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1063414608336</v>
+        <v>166.0134432597343</v>
       </c>
       <c r="H22" t="n">
-        <v>149.7879644472162</v>
+        <v>148.9620149865326</v>
       </c>
       <c r="I22" t="n">
-        <v>117.7744934041466</v>
+        <v>50.79405096363678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.7461592834061</v>
+        <v>24.69588926913745</v>
       </c>
       <c r="S22" t="n">
-        <v>192.6812454004474</v>
+        <v>191.0622831140156</v>
       </c>
       <c r="T22" t="n">
-        <v>195.4545580243038</v>
+        <v>230.9773799693311</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5590308277518</v>
+        <v>209.6807345719459</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>244.5773474256822</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>195.8197683723948</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.2428242232674</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8960733880169</v>
+        <v>318.6866422491445</v>
       </c>
       <c r="G23" t="n">
-        <v>313.6600592039928</v>
+        <v>407.6989110401703</v>
       </c>
       <c r="H23" t="n">
-        <v>213.159801594776</v>
+        <v>224.3692327336484</v>
       </c>
       <c r="I23" t="n">
         <v>85.59345305713155</v>
@@ -24259,7 +24259,7 @@
         <v>40.45167468273253</v>
       </c>
       <c r="T23" t="n">
-        <v>215.4338168632947</v>
+        <v>121.3949650271172</v>
       </c>
       <c r="U23" t="n">
         <v>253.0886249164109</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>26.30259172634653</v>
+        <v>120.341443562524</v>
       </c>
       <c r="T24" t="n">
         <v>172.3408939431725</v>
       </c>
       <c r="U24" t="n">
-        <v>125.0861965269672</v>
+        <v>113.8767653880948</v>
       </c>
       <c r="V24" t="n">
-        <v>126.2757497764661</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>144.9866527107409</v>
       </c>
       <c r="X24" t="n">
         <v>93.37515503731096</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>83.48222291907034</v>
       </c>
     </row>
     <row r="25">
@@ -24366,10 +24366,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>74.46421491849317</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>60.0379301303329</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24378,7 +24378,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9739267159197</v>
+        <v>83.14450601861458</v>
       </c>
       <c r="H25" t="n">
         <v>148.6106769878903</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>95.79231084391147</v>
+        <v>1.753459007733966</v>
       </c>
       <c r="S25" t="n">
         <v>190.3736175277197</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8085365548506</v>
+        <v>136.7696847186731</v>
       </c>
       <c r="U25" t="n">
         <v>282.5518082053019</v>
@@ -24426,13 +24426,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>186.4582462119566</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>148.9100982975416</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>126.8420887353456</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5188377984434</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>318.6866422491445</v>
+        <v>329.8960733880169</v>
       </c>
       <c r="G26" t="n">
-        <v>324.8694903428652</v>
+        <v>407.6989110401703</v>
       </c>
       <c r="H26" t="n">
-        <v>307.1986534309536</v>
+        <v>213.159801594776</v>
       </c>
       <c r="I26" t="n">
-        <v>85.59345305713157</v>
+        <v>85.59345305713155</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>134.49052651891</v>
       </c>
       <c r="T26" t="n">
-        <v>215.4338168632947</v>
+        <v>121.3949650271172</v>
       </c>
       <c r="U26" t="n">
-        <v>159.0497730802333</v>
+        <v>159.0497730802334</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24524,13 +24524,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>55.1088362993312</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>45.95865700742934</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>41.04317414404365</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -24542,7 +24542,7 @@
         <v>80.53030557895501</v>
       </c>
       <c r="I27" t="n">
-        <v>24.35184068838328</v>
+        <v>24.35184068838327</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>172.3408939431725</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9156172242723</v>
+        <v>113.8767653880948</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>144.9866527107409</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>93.37515503731096</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -24609,13 +24609,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>59.96437218321201</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>61.71382360297928</v>
       </c>
       <c r="G28" t="n">
-        <v>83.14450601861458</v>
+        <v>165.9739267159197</v>
       </c>
       <c r="H28" t="n">
         <v>148.6106769878903</v>
@@ -24660,7 +24660,7 @@
         <v>282.5518082053019</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>180.4901310300789</v>
       </c>
       <c r="W28" t="n">
         <v>186.4582462119566</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>134.49052651891</v>
+        <v>40.45167468273253</v>
       </c>
       <c r="T29" t="n">
-        <v>121.3949650271172</v>
+        <v>215.4338168632947</v>
       </c>
       <c r="U29" t="n">
-        <v>159.0497730802333</v>
+        <v>253.0886249164109</v>
       </c>
       <c r="V29" t="n">
         <v>244.6468893673393</v>
       </c>
       <c r="W29" t="n">
-        <v>284.4596239840903</v>
+        <v>273.2501928452179</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>309.6963812912998</v>
       </c>
     </row>
     <row r="30">
@@ -24764,10 +24764,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>34.74922586855693</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>52.25260528291602</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>37.51202286521888</v>
+        <v>120.341443562524</v>
       </c>
       <c r="T30" t="n">
-        <v>172.3408939431725</v>
+        <v>78.30204210699502</v>
       </c>
       <c r="U30" t="n">
         <v>207.9156172242723</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>126.2757497764661</v>
       </c>
       <c r="W30" t="n">
-        <v>133.7772215718685</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>93.37515503731093</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>83.48222291907034</v>
       </c>
     </row>
     <row r="31">
@@ -24843,13 +24843,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>71.24736126920527</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>59.96437218321201</v>
       </c>
       <c r="F31" t="n">
-        <v>61.71382360297925</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>165.9739267159197</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>95.79231084391147</v>
+        <v>1.753459007733966</v>
       </c>
       <c r="S31" t="n">
-        <v>190.3736175277197</v>
+        <v>107.5441968304145</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8085365548506</v>
+        <v>136.7696847186731</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5129563691244</v>
+        <v>282.5518082053019</v>
       </c>
       <c r="V31" t="n">
-        <v>169.2806998912065</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>313.6603775569778</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>295.2048946459212</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>304.5188377984434</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -24934,7 +24934,7 @@
         <v>407.6989110401703</v>
       </c>
       <c r="H32" t="n">
-        <v>213.159801594776</v>
+        <v>307.1986534309535</v>
       </c>
       <c r="I32" t="n">
         <v>85.59345305713155</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>134.49052651891</v>
+        <v>51.66110582160488</v>
       </c>
       <c r="T32" t="n">
-        <v>215.4338168632947</v>
+        <v>121.3949650271172</v>
       </c>
       <c r="U32" t="n">
         <v>253.0886249164109</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>56.23951926037419</v>
       </c>
       <c r="C33" t="n">
-        <v>55.10883629933117</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>34.74922586855693</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>41.04317414404362</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>29.14863621952199</v>
       </c>
       <c r="G33" t="n">
-        <v>24.10756902181808</v>
+        <v>118.1464208579956</v>
       </c>
       <c r="H33" t="n">
         <v>80.53030557895501</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>24.35184068838327</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>61.86386355360218</v>
+        <v>37.51202286521888</v>
       </c>
       <c r="T33" t="n">
         <v>172.3408939431725</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.5265178070831</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25089,7 +25089,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.9739267159197</v>
+        <v>83.14450601861458</v>
       </c>
       <c r="H34" t="n">
         <v>148.6106769878903</v>
@@ -25131,7 +25131,7 @@
         <v>230.8085365548506</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5518082053019</v>
+        <v>188.5129563691244</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25143,7 +25143,7 @@
         <v>137.7006671586692</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.8420887353455</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>313.6603775569778</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2048946459212</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25174,7 +25174,7 @@
         <v>307.1986534309535</v>
       </c>
       <c r="I35" t="n">
-        <v>85.59345305713155</v>
+        <v>2.76403235982643</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>215.4338168632947</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0886249164109</v>
+        <v>159.0497730802333</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>273.2501928452179</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.4869501524274</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.1464208579956</v>
+        <v>46.16029459185124</v>
       </c>
       <c r="H36" t="n">
-        <v>80.53030557895501</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>24.35184068838327</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120.341443562524</v>
+        <v>26.30259172634651</v>
       </c>
       <c r="T36" t="n">
-        <v>89.51147324586736</v>
+        <v>172.3408939431725</v>
       </c>
       <c r="U36" t="n">
         <v>113.8767653880948</v>
       </c>
       <c r="V36" t="n">
-        <v>126.2757497764661</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>133.7772215718685</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>89.31708666821073</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.753459007733937</v>
+        <v>95.79231084391147</v>
       </c>
       <c r="S37" t="n">
-        <v>96.33476569154213</v>
+        <v>190.3736175277197</v>
       </c>
       <c r="T37" t="n">
-        <v>147.9791158575455</v>
+        <v>230.8085365548506</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5518082053019</v>
+        <v>199.7223875079968</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>169.2806998912065</v>
       </c>
       <c r="W37" t="n">
-        <v>186.4582462119566</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>126.8420887353455</v>
       </c>
     </row>
     <row r="38">
@@ -25405,10 +25405,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>313.6600592039928</v>
+        <v>407.6989110401703</v>
       </c>
       <c r="H38" t="n">
-        <v>307.1986534309535</v>
+        <v>213.159801594776</v>
       </c>
       <c r="I38" t="n">
         <v>85.59345305713155</v>
@@ -25447,19 +25447,19 @@
         <v>121.3949650271172</v>
       </c>
       <c r="U38" t="n">
-        <v>159.0497730802333</v>
+        <v>253.0886249164109</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>284.4596239840903</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>291.5192271800962</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>309.6963812912998</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>56.23951926037419</v>
       </c>
       <c r="C39" t="n">
-        <v>55.10883629933117</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>126.4889625863843</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>41.04317414404362</v>
       </c>
       <c r="F39" t="n">
-        <v>29.14863621952199</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>24.10756902181808</v>
+        <v>118.1464208579956</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>80.53030557895501</v>
       </c>
       <c r="I39" t="n">
         <v>24.35184068838327</v>
@@ -25526,7 +25526,7 @@
         <v>172.3408939431725</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9156172242723</v>
+        <v>113.8767653880948</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25535,7 +25535,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>104.5845861761833</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25557,10 +25557,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>59.96437218321198</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>61.71382360297925</v>
       </c>
       <c r="G40" t="n">
         <v>165.9739267159197</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>95.79231084391147</v>
+        <v>1.753459007733937</v>
       </c>
       <c r="S40" t="n">
-        <v>107.5441968304145</v>
+        <v>190.3736175277197</v>
       </c>
       <c r="T40" t="n">
-        <v>136.7696847186731</v>
+        <v>230.8085365548506</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5129563691244</v>
+        <v>282.5518082053019</v>
       </c>
       <c r="V40" t="n">
-        <v>169.2806998912065</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>197.667677350829</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,13 +25630,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>295.2048946459212</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>304.5188377984434</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -25645,7 +25645,7 @@
         <v>407.6989110401703</v>
       </c>
       <c r="H41" t="n">
-        <v>213.159801594776</v>
+        <v>307.1986534309535</v>
       </c>
       <c r="I41" t="n">
         <v>85.59345305713155</v>
@@ -25681,7 +25681,7 @@
         <v>134.49052651891</v>
       </c>
       <c r="T41" t="n">
-        <v>121.3949650271172</v>
+        <v>132.6043961659895</v>
       </c>
       <c r="U41" t="n">
         <v>253.0886249164109</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>302.7286583189686</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25709,7 +25709,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>66.31826743820358</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.341443562524</v>
+        <v>26.30259172634651</v>
       </c>
       <c r="T42" t="n">
-        <v>78.30204210699502</v>
+        <v>78.30204210699499</v>
       </c>
       <c r="U42" t="n">
-        <v>113.8767653880948</v>
+        <v>207.9156172242723</v>
       </c>
       <c r="V42" t="n">
-        <v>126.2757497764661</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>144.9866527107409</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>93.37515503731093</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>85.67364605736554</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25839,7 +25839,7 @@
         <v>190.3736175277197</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8085365548506</v>
+        <v>136.7696847186731</v>
       </c>
       <c r="U43" t="n">
         <v>188.5129563691244</v>
@@ -25848,10 +25848,10 @@
         <v>169.2806998912065</v>
       </c>
       <c r="W43" t="n">
-        <v>186.4582462119566</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>148.9100982975416</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,7 +25867,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>281.8815973176373</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25879,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>285.7063085134689</v>
+        <v>407.6989110401703</v>
       </c>
       <c r="H44" t="n">
-        <v>306.1645855229701</v>
+        <v>213.159801594776</v>
       </c>
       <c r="I44" t="n">
-        <v>81.70077364567956</v>
+        <v>85.59345305713155</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.189652850835</v>
+        <v>134.49052651891</v>
       </c>
       <c r="T44" t="n">
-        <v>214.9918168860265</v>
+        <v>215.4338168632947</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0805472469234</v>
+        <v>159.0497730802333</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>244.6468893673393</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>263.6664473581658</v>
+        <v>302.7286583189686</v>
       </c>
       <c r="Y44" t="n">
-        <v>270.634170330497</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>27.2560564774008</v>
+        <v>55.10883629933117</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>13.19039432211325</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>40.35806735839439</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0923966805212</v>
+        <v>118.1464208579956</v>
       </c>
       <c r="H45" t="n">
-        <v>80.00854575966319</v>
+        <v>80.53030557895501</v>
       </c>
       <c r="I45" t="n">
-        <v>22.491797735867</v>
+        <v>24.35184068838327</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>119.3379681607525</v>
+        <v>120.341443562524</v>
       </c>
       <c r="T45" t="n">
-        <v>50.23150693813947</v>
+        <v>78.30204210699499</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9120630020701</v>
+        <v>207.9156172242723</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>120.4539242435846</v>
+        <v>133.7772215718685</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26037,13 +26037,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>152.322300821391</v>
+        <v>165.9739267159197</v>
       </c>
       <c r="H46" t="n">
-        <v>148.207989438968</v>
+        <v>148.6106769878903</v>
       </c>
       <c r="I46" t="n">
-        <v>112.4303652576383</v>
+        <v>113.7924208934615</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>95.79231084391147</v>
       </c>
       <c r="S46" t="n">
-        <v>189.5843005223167</v>
+        <v>190.3736175277197</v>
       </c>
       <c r="T46" t="n">
-        <v>230.6150159536303</v>
+        <v>136.7696847186731</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5493377295417</v>
+        <v>199.7223875079968</v>
       </c>
       <c r="V46" t="n">
-        <v>141.4279200692761</v>
+        <v>169.2806998912065</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>186.4582462119566</v>
       </c>
       <c r="X46" t="n">
-        <v>109.8478873367388</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.98930891341517</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>265705.5831293453</v>
+        <v>295503.9558609063</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>265705.5831293453</v>
+        <v>295503.9558609062</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>313058.3877792999</v>
+        <v>313058.3877792998</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>313058.3877792999</v>
+        <v>313058.3877792998</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>313058.3877792997</v>
+        <v>313058.3877792999</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>313058.3877792998</v>
+        <v>313058.3877792996</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>313058.3877792996</v>
+        <v>313058.3877792999</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>313058.3877792999</v>
+        <v>313058.3877792998</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>336470.7808596152</v>
+        <v>313058.3877792999</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>52601.96015041335</v>
       </c>
       <c r="C2" t="n">
-        <v>52601.96015041335</v>
+        <v>52601.96015041333</v>
       </c>
       <c r="D2" t="n">
-        <v>56009.15309726904</v>
+        <v>56009.15309726903</v>
       </c>
       <c r="E2" t="n">
-        <v>56860.03449233542</v>
+        <v>56860.03449233543</v>
       </c>
       <c r="F2" t="n">
-        <v>56860.03449233542</v>
+        <v>56860.03449233543</v>
       </c>
       <c r="G2" t="n">
-        <v>64577.60873135832</v>
+        <v>72544.98269666311</v>
       </c>
       <c r="H2" t="n">
-        <v>64577.60873135829</v>
+        <v>72544.98269666309</v>
       </c>
       <c r="I2" t="n">
-        <v>77014.200824926</v>
+        <v>77014.20082492603</v>
       </c>
       <c r="J2" t="n">
-        <v>77014.20082492604</v>
+        <v>77014.20082492603</v>
       </c>
       <c r="K2" t="n">
-        <v>77014.20082492604</v>
+        <v>77014.20082492598</v>
       </c>
       <c r="L2" t="n">
-        <v>77014.200824926</v>
+        <v>77014.20082492603</v>
       </c>
       <c r="M2" t="n">
-        <v>77014.20082492607</v>
+        <v>77014.20082492601</v>
       </c>
       <c r="N2" t="n">
-        <v>77014.20082492605</v>
+        <v>77014.20082492601</v>
       </c>
       <c r="O2" t="n">
         <v>77014.20082492601</v>
       </c>
       <c r="P2" t="n">
-        <v>82849.27905581011</v>
+        <v>77014.20082492601</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>130694.7925215629</v>
       </c>
       <c r="E3" t="n">
-        <v>47802.33652347386</v>
+        <v>47802.33652347388</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45494.48823175726</v>
+        <v>95676.11659664223</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>70729.4447499754</v>
+        <v>22123.91419801468</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8644.123907043677</v>
+        <v>17537.01545161997</v>
       </c>
       <c r="P3" t="n">
-        <v>23300.61495283672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37572.82867886667</v>
+        <v>37572.82867886668</v>
       </c>
       <c r="C4" t="n">
-        <v>37572.82867886667</v>
+        <v>37572.82867886668</v>
       </c>
       <c r="D4" t="n">
         <v>16696.35026665007</v>
@@ -26432,34 +26432,34 @@
         <v>9138.791925078396</v>
       </c>
       <c r="G4" t="n">
-        <v>7426.296070088197</v>
+        <v>5387.217205265779</v>
       </c>
       <c r="H4" t="n">
-        <v>7426.296070088196</v>
+        <v>5387.217205265779</v>
       </c>
       <c r="I4" t="n">
         <v>5083.130412448492</v>
       </c>
       <c r="J4" t="n">
-        <v>5083.130412448494</v>
+        <v>5083.130412448492</v>
       </c>
       <c r="K4" t="n">
         <v>5083.130412448492</v>
       </c>
       <c r="L4" t="n">
-        <v>5083.130412448493</v>
+        <v>5083.130412448492</v>
       </c>
       <c r="M4" t="n">
         <v>5083.130412448493</v>
       </c>
       <c r="N4" t="n">
+        <v>5083.130412448492</v>
+      </c>
+      <c r="O4" t="n">
         <v>5083.130412448493</v>
       </c>
-      <c r="O4" t="n">
-        <v>5083.130412448492</v>
-      </c>
       <c r="P4" t="n">
-        <v>5179.363149451355</v>
+        <v>5083.130412448493</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>4623.929287772457</v>
       </c>
       <c r="G5" t="n">
-        <v>7807.426233946517</v>
+        <v>11177.25252261976</v>
       </c>
       <c r="H5" t="n">
-        <v>7807.426233946517</v>
+        <v>11177.25252261976</v>
       </c>
       <c r="I5" t="n">
         <v>12941.84147670989</v>
@@ -26511,7 +26511,7 @@
         <v>12941.84147670989</v>
       </c>
       <c r="P5" t="n">
-        <v>15182.83026754882</v>
+        <v>12941.84147670989</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18598.46852845332</v>
+        <v>-20026.06202259823</v>
       </c>
       <c r="C6" t="n">
-        <v>-18598.46852845332</v>
+        <v>-20026.06202259825</v>
       </c>
       <c r="D6" t="n">
-        <v>-128336.4228311893</v>
+        <v>-129739.6792328566</v>
       </c>
       <c r="E6" t="n">
-        <v>-4705.023243989292</v>
+        <v>-6102.201921406193</v>
       </c>
       <c r="F6" t="n">
-        <v>43097.31327948457</v>
+        <v>41700.13460206769</v>
       </c>
       <c r="G6" t="n">
-        <v>3849.398195566344</v>
+        <v>-40980.74696096493</v>
       </c>
       <c r="H6" t="n">
-        <v>49343.88642732358</v>
+        <v>54695.36963567729</v>
       </c>
       <c r="I6" t="n">
-        <v>-11740.21581420779</v>
+        <v>35612.09439128315</v>
       </c>
       <c r="J6" t="n">
-        <v>58989.22893576766</v>
+        <v>57736.00858929783</v>
       </c>
       <c r="K6" t="n">
-        <v>58989.22893576766</v>
+        <v>57736.00858929779</v>
       </c>
       <c r="L6" t="n">
-        <v>58989.22893576761</v>
+        <v>57736.00858929783</v>
       </c>
       <c r="M6" t="n">
-        <v>58989.22893576769</v>
+        <v>57736.00858929782</v>
       </c>
       <c r="N6" t="n">
-        <v>58989.22893576767</v>
+        <v>57736.00858929782</v>
       </c>
       <c r="O6" t="n">
-        <v>50345.10502872396</v>
+        <v>40198.99313767784</v>
       </c>
       <c r="P6" t="n">
-        <v>39186.47068597322</v>
+        <v>57736.00858929782</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>212.1068480629568</v>
       </c>
       <c r="G3" t="n">
-        <v>257.9589631239192</v>
+        <v>309.4752382790265</v>
       </c>
       <c r="H3" t="n">
-        <v>257.9589631239192</v>
+        <v>309.4752382790265</v>
       </c>
       <c r="I3" t="n">
         <v>331.3889580307477</v>
@@ -26779,7 +26779,7 @@
         <v>331.3889580307477</v>
       </c>
       <c r="P3" t="n">
-        <v>356.5054615933878</v>
+        <v>331.3889580307477</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="H4" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="I4" t="n">
         <v>94.0388518361775</v>
@@ -26816,7 +26816,7 @@
         <v>94.0388518361775</v>
       </c>
       <c r="K4" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="L4" t="n">
         <v>94.03885183617753</v>
@@ -26828,10 +26828,10 @@
         <v>94.03885183617753</v>
       </c>
       <c r="O4" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="P4" t="n">
-        <v>121.8916316581079</v>
+        <v>94.03885183617753</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>152.6070247818962</v>
       </c>
       <c r="E3" t="n">
-        <v>59.49982328106051</v>
+        <v>59.49982328106054</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45.85211506096246</v>
+        <v>97.36839021606971</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73.42999490682854</v>
+        <v>21.91371975172126</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>25.1165035626401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.11910121372556</v>
+        <v>21.16562275497705</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.91975062245191</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="P4" t="n">
-        <v>27.8527798219304</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,22 +31515,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6134955770126478</v>
+        <v>0.6134955770126477</v>
       </c>
       <c r="H8" t="n">
-        <v>6.282961578080781</v>
+        <v>6.28296157808078</v>
       </c>
       <c r="I8" t="n">
-        <v>23.65178823278013</v>
+        <v>23.65178823278012</v>
       </c>
       <c r="J8" t="n">
-        <v>52.06967022947726</v>
+        <v>52.06967022947725</v>
       </c>
       <c r="K8" t="n">
         <v>78.03893800442265</v>
       </c>
       <c r="L8" t="n">
-        <v>96.8142032694235</v>
+        <v>96.81420326942349</v>
       </c>
       <c r="M8" t="n">
         <v>107.7244552371222</v>
@@ -31542,7 +31542,7 @@
         <v>103.3671029013898</v>
       </c>
       <c r="P8" t="n">
-        <v>88.22143084389009</v>
+        <v>88.22143084389008</v>
       </c>
       <c r="Q8" t="n">
         <v>66.25062049212461</v>
@@ -31606,13 +31606,13 @@
         <v>31.01233887572479</v>
       </c>
       <c r="K9" t="n">
-        <v>53.00502671127429</v>
+        <v>53.00502671127428</v>
       </c>
       <c r="L9" t="n">
         <v>71.27179963988466</v>
       </c>
       <c r="M9" t="n">
-        <v>83.17082850613345</v>
+        <v>83.17082850613343</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -31630,7 +31630,7 @@
         <v>20.38023625294834</v>
       </c>
       <c r="S9" t="n">
-        <v>6.097082546710663</v>
+        <v>6.097082546710661</v>
       </c>
       <c r="T9" t="n">
         <v>1.323074111080779</v>
@@ -31688,7 +31688,7 @@
         <v>31.97242256905956</v>
       </c>
       <c r="L10" t="n">
-        <v>40.91369316857593</v>
+        <v>40.91369316857592</v>
       </c>
       <c r="M10" t="n">
         <v>43.13775292318419</v>
@@ -31697,10 +31697,10 @@
         <v>42.11203357628952</v>
       </c>
       <c r="O10" t="n">
-        <v>38.89727903785121</v>
+        <v>38.8972790378512</v>
       </c>
       <c r="P10" t="n">
-        <v>33.2833419294811</v>
+        <v>33.28334192948109</v>
       </c>
       <c r="Q10" t="n">
         <v>23.04366074206633</v>
@@ -31709,7 +31709,7 @@
         <v>12.3736777798567</v>
       </c>
       <c r="S10" t="n">
-        <v>4.795863385358934</v>
+        <v>4.795863385358933</v>
       </c>
       <c r="T10" t="n">
         <v>1.175824617171987</v>
@@ -31782,7 +31782,7 @@
         <v>122.618009587993</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.08101864827586</v>
+        <v>92.08101864827587</v>
       </c>
       <c r="R11" t="n">
         <v>53.56284138546617</v>
@@ -31834,7 +31834,7 @@
         <v>0.4562298241354165</v>
       </c>
       <c r="H12" t="n">
-        <v>4.406219617307838</v>
+        <v>4.406219617307839</v>
       </c>
       <c r="I12" t="n">
         <v>15.70791280466237</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3824877588020532</v>
       </c>
       <c r="H13" t="n">
         <v>3.400663891894621</v>
@@ -31931,13 +31931,13 @@
         <v>59.95669477294365</v>
       </c>
       <c r="N13" t="n">
-        <v>58.53105858104513</v>
+        <v>58.53105858104514</v>
       </c>
       <c r="O13" t="n">
-        <v>54.0629061259484</v>
+        <v>54.06290612594841</v>
       </c>
       <c r="P13" t="n">
-        <v>46.26015584638647</v>
+        <v>46.26015584638648</v>
       </c>
       <c r="Q13" t="n">
         <v>32.02813405750647</v>
@@ -32019,7 +32019,7 @@
         <v>122.618009587993</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.08101864827586</v>
+        <v>92.08101864827587</v>
       </c>
       <c r="R14" t="n">
         <v>53.56284138546617</v>
@@ -32071,7 +32071,7 @@
         <v>0.4562298241354165</v>
       </c>
       <c r="H15" t="n">
-        <v>4.406219617307838</v>
+        <v>4.406219617307839</v>
       </c>
       <c r="I15" t="n">
         <v>15.70791280466237</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3824877588020532</v>
       </c>
       <c r="H16" t="n">
         <v>3.400663891894621</v>
@@ -32168,13 +32168,13 @@
         <v>59.95669477294365</v>
       </c>
       <c r="N16" t="n">
-        <v>58.53105858104513</v>
+        <v>58.53105858104514</v>
       </c>
       <c r="O16" t="n">
-        <v>54.0629061259484</v>
+        <v>54.06290612594841</v>
       </c>
       <c r="P16" t="n">
-        <v>46.26015584638647</v>
+        <v>46.26015584638648</v>
       </c>
       <c r="Q16" t="n">
         <v>32.02813405750647</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.037020957282087</v>
+        <v>1.244121560920709</v>
       </c>
       <c r="H17" t="n">
-        <v>10.62039087876517</v>
+        <v>12.74135993577921</v>
       </c>
       <c r="I17" t="n">
-        <v>39.97975045561768</v>
+        <v>47.96399647739566</v>
       </c>
       <c r="J17" t="n">
-        <v>88.01585747312056</v>
+        <v>105.5932623311941</v>
       </c>
       <c r="K17" t="n">
-        <v>131.9129545948713</v>
+        <v>158.2569280049677</v>
       </c>
       <c r="L17" t="n">
-        <v>163.649684716293</v>
+        <v>196.3317132249949</v>
       </c>
       <c r="M17" t="n">
-        <v>182.0918061653583</v>
+        <v>218.4568600340185</v>
       </c>
       <c r="N17" t="n">
-        <v>185.038241960236</v>
+        <v>221.9917204189845</v>
       </c>
       <c r="O17" t="n">
-        <v>174.7263648162623</v>
+        <v>209.6204866475792</v>
       </c>
       <c r="P17" t="n">
-        <v>149.1249099333608</v>
+        <v>178.9062356123492</v>
       </c>
       <c r="Q17" t="n">
-        <v>111.986596900696</v>
+        <v>134.3511322118763</v>
       </c>
       <c r="R17" t="n">
-        <v>65.14176770787093</v>
+        <v>78.15105100118552</v>
       </c>
       <c r="S17" t="n">
-        <v>23.63111506406557</v>
+        <v>28.35042006948067</v>
       </c>
       <c r="T17" t="n">
-        <v>4.539559240502336</v>
+        <v>5.446142132930405</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0829616765825669</v>
+        <v>0.09952972487365666</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5548551282288073</v>
+        <v>0.6656637200718684</v>
       </c>
       <c r="H18" t="n">
-        <v>5.358732422630851</v>
+        <v>6.428910138588835</v>
       </c>
       <c r="I18" t="n">
-        <v>19.10356472191289</v>
+        <v>22.91868509896564</v>
       </c>
       <c r="J18" t="n">
-        <v>52.42164174200325</v>
+        <v>62.8906236581935</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>107.4900929030087</v>
       </c>
       <c r="L18" t="n">
-        <v>120.4741365042417</v>
+        <v>144.5336950094642</v>
       </c>
       <c r="M18" t="n">
-        <v>128.3068726717639</v>
+        <v>129.9759470743238</v>
       </c>
       <c r="N18" t="n">
-        <v>106.476892475145</v>
+        <v>158.2453419353671</v>
       </c>
       <c r="O18" t="n">
-        <v>128.6073095113408</v>
+        <v>158.3783325558712</v>
       </c>
       <c r="P18" t="n">
-        <v>105.9529937404641</v>
+        <v>127.1125747565307</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.8267704033825</v>
+        <v>84.97138995163007</v>
       </c>
       <c r="R18" t="n">
-        <v>34.44968945266228</v>
+        <v>41.32954219884812</v>
       </c>
       <c r="S18" t="n">
-        <v>10.30619064933771</v>
+        <v>12.36441164256298</v>
       </c>
       <c r="T18" t="n">
-        <v>2.236455538781903</v>
+        <v>2.683091924324767</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03650362685715839</v>
+        <v>0.04379366579420188</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4651719007152641</v>
+        <v>0.5580701018146379</v>
       </c>
       <c r="H19" t="n">
-        <v>4.135801080904805</v>
+        <v>4.961750541588329</v>
       </c>
       <c r="I19" t="n">
-        <v>13.98898770514631</v>
+        <v>16.78268997093475</v>
       </c>
       <c r="J19" t="n">
-        <v>32.88765338056917</v>
+        <v>39.45555619829489</v>
       </c>
       <c r="K19" t="n">
-        <v>54.04451719219158</v>
+        <v>64.837599101737</v>
       </c>
       <c r="L19" t="n">
-        <v>69.15837512997663</v>
+        <v>82.96980404615081</v>
       </c>
       <c r="M19" t="n">
-        <v>72.91780985484816</v>
+        <v>87.48002514172545</v>
       </c>
       <c r="N19" t="n">
-        <v>71.1839873158186</v>
+        <v>85.39994567132551</v>
       </c>
       <c r="O19" t="n">
-        <v>65.74993374837209</v>
+        <v>78.88067220921812</v>
       </c>
       <c r="P19" t="n">
-        <v>56.26042697378065</v>
+        <v>67.49604213219945</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.9518034317118</v>
+        <v>46.730760980133</v>
       </c>
       <c r="R19" t="n">
-        <v>20.91582019034269</v>
+        <v>25.09286112341089</v>
       </c>
       <c r="S19" t="n">
-        <v>8.106677578828736</v>
+        <v>9.725639865260549</v>
       </c>
       <c r="T19" t="n">
-        <v>1.987552666692491</v>
+        <v>2.384481344117088</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02537301276628716</v>
+        <v>0.03044018737170755</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.037020957282087</v>
+        <v>1.244121560920709</v>
       </c>
       <c r="H20" t="n">
-        <v>10.62039087876517</v>
+        <v>12.74135993577921</v>
       </c>
       <c r="I20" t="n">
-        <v>39.97975045561768</v>
+        <v>47.96399647739566</v>
       </c>
       <c r="J20" t="n">
-        <v>88.01585747312056</v>
+        <v>105.5932623311941</v>
       </c>
       <c r="K20" t="n">
-        <v>131.9129545948713</v>
+        <v>158.2569280049677</v>
       </c>
       <c r="L20" t="n">
-        <v>163.649684716293</v>
+        <v>196.3317132249949</v>
       </c>
       <c r="M20" t="n">
-        <v>182.0918061653583</v>
+        <v>218.4568600340185</v>
       </c>
       <c r="N20" t="n">
-        <v>185.038241960236</v>
+        <v>221.9917204189845</v>
       </c>
       <c r="O20" t="n">
-        <v>174.7263648162623</v>
+        <v>209.6204866475792</v>
       </c>
       <c r="P20" t="n">
-        <v>149.1249099333608</v>
+        <v>178.9062356123492</v>
       </c>
       <c r="Q20" t="n">
-        <v>111.986596900696</v>
+        <v>134.3511322118763</v>
       </c>
       <c r="R20" t="n">
-        <v>65.14176770787093</v>
+        <v>78.15105100118552</v>
       </c>
       <c r="S20" t="n">
-        <v>23.63111506406557</v>
+        <v>28.35042006948067</v>
       </c>
       <c r="T20" t="n">
-        <v>4.539559240502336</v>
+        <v>5.446142132930405</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0829616765825669</v>
+        <v>0.09952972487365666</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5548551282288073</v>
+        <v>0.6656637200718684</v>
       </c>
       <c r="H21" t="n">
-        <v>5.358732422630851</v>
+        <v>6.428910138588835</v>
       </c>
       <c r="I21" t="n">
-        <v>19.10356472191289</v>
+        <v>22.91868509896564</v>
       </c>
       <c r="J21" t="n">
-        <v>52.42164174200325</v>
+        <v>62.8906236581935</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333333</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>120.4741365042417</v>
+        <v>144.5336950094642</v>
       </c>
       <c r="M21" t="n">
-        <v>128.3068726717639</v>
+        <v>165.2603511305124</v>
       </c>
       <c r="N21" t="n">
-        <v>121.2918634766186</v>
+        <v>158.2453419353671</v>
       </c>
       <c r="O21" t="n">
-        <v>113.7923385098672</v>
+        <v>158.3783325558712</v>
       </c>
       <c r="P21" t="n">
-        <v>105.9529937404641</v>
+        <v>109.7213282700175</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.8267704033825</v>
+        <v>84.97138995163007</v>
       </c>
       <c r="R21" t="n">
-        <v>34.44968945266228</v>
+        <v>41.32954219884812</v>
       </c>
       <c r="S21" t="n">
-        <v>10.30619064933771</v>
+        <v>12.36441164256298</v>
       </c>
       <c r="T21" t="n">
-        <v>2.236455538781903</v>
+        <v>2.683091924324767</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03650362685715839</v>
+        <v>0.04379366579420188</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4651719007152641</v>
+        <v>0.5580701018146379</v>
       </c>
       <c r="H22" t="n">
-        <v>4.135801080904805</v>
+        <v>4.961750541588329</v>
       </c>
       <c r="I22" t="n">
-        <v>13.98898770514631</v>
+        <v>16.78268997093475</v>
       </c>
       <c r="J22" t="n">
-        <v>32.88765338056917</v>
+        <v>39.45555619829489</v>
       </c>
       <c r="K22" t="n">
-        <v>54.04451719219158</v>
+        <v>64.837599101737</v>
       </c>
       <c r="L22" t="n">
-        <v>69.15837512997663</v>
+        <v>82.96980404615081</v>
       </c>
       <c r="M22" t="n">
-        <v>72.91780985484816</v>
+        <v>87.48002514172545</v>
       </c>
       <c r="N22" t="n">
-        <v>71.1839873158186</v>
+        <v>85.39994567132551</v>
       </c>
       <c r="O22" t="n">
-        <v>65.74993374837209</v>
+        <v>78.88067220921812</v>
       </c>
       <c r="P22" t="n">
-        <v>56.26042697378065</v>
+        <v>67.49604213219945</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.9518034317118</v>
+        <v>46.730760980133</v>
       </c>
       <c r="R22" t="n">
-        <v>20.91582019034269</v>
+        <v>25.09286112341089</v>
       </c>
       <c r="S22" t="n">
-        <v>8.106677578828736</v>
+        <v>9.725639865260549</v>
       </c>
       <c r="T22" t="n">
-        <v>1.987552666692491</v>
+        <v>2.384481344117088</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02537301276628716</v>
+        <v>0.03044018737170755</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>67.34386363151263</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>115.1013893190381</v>
       </c>
       <c r="L24" t="n">
         <v>154.7680223331337</v>
@@ -32803,10 +32803,10 @@
         <v>179.4109646903441</v>
       </c>
       <c r="O24" t="n">
-        <v>169.0470690491941</v>
+        <v>169.5929887386224</v>
       </c>
       <c r="P24" t="n">
-        <v>136.1133250447424</v>
+        <v>110.0629513696094</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.332216916706522</v>
+        <v>1.332216916706523</v>
       </c>
       <c r="H26" t="n">
         <v>13.64356649822068</v>
       </c>
       <c r="I26" t="n">
-        <v>51.36029268132825</v>
+        <v>51.36029268132826</v>
       </c>
       <c r="J26" t="n">
         <v>113.0702455343203</v>
       </c>
       <c r="K26" t="n">
-        <v>169.4629876185074</v>
+        <v>169.4629876185075</v>
       </c>
       <c r="L26" t="n">
         <v>210.2338210831647</v>
@@ -32958,10 +32958,10 @@
         <v>233.9256336756443</v>
       </c>
       <c r="N26" t="n">
-        <v>237.7107949902367</v>
+        <v>237.7107949902368</v>
       </c>
       <c r="O26" t="n">
-        <v>224.4635630247362</v>
+        <v>224.4635630247363</v>
       </c>
       <c r="P26" t="n">
         <v>191.574457893544</v>
@@ -32970,13 +32970,13 @@
         <v>143.8644395639916</v>
       </c>
       <c r="R26" t="n">
-        <v>83.68487089406617</v>
+        <v>83.68487089406618</v>
       </c>
       <c r="S26" t="n">
-        <v>30.35789298944991</v>
+        <v>30.35789298944992</v>
       </c>
       <c r="T26" t="n">
-        <v>5.831779552882804</v>
+        <v>5.831779552882805</v>
       </c>
       <c r="U26" t="n">
         <v>0.1065773533365218</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7127988908585894</v>
+        <v>0.7127988908585895</v>
       </c>
       <c r="H27" t="n">
-        <v>6.884136656450062</v>
+        <v>6.884136656450063</v>
       </c>
       <c r="I27" t="n">
-        <v>24.54154075982424</v>
+        <v>24.54154075982425</v>
       </c>
       <c r="J27" t="n">
-        <v>67.34386363151262</v>
+        <v>67.34386363151263</v>
       </c>
       <c r="K27" t="n">
-        <v>115.1013893190381</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>154.7680223331336</v>
+        <v>154.7680223331337</v>
       </c>
       <c r="M27" t="n">
-        <v>180.6069821267575</v>
+        <v>180.0610624373292</v>
       </c>
       <c r="N27" t="n">
-        <v>153.3605910152112</v>
+        <v>179.4109646903441</v>
       </c>
       <c r="O27" t="n">
         <v>169.5929887386224</v>
@@ -33046,16 +33046,16 @@
         <v>136.1133250447424</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591398</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
-        <v>44.25605745172893</v>
+        <v>44.25605745172894</v>
       </c>
       <c r="S27" t="n">
         <v>13.23992676660581</v>
       </c>
       <c r="T27" t="n">
-        <v>2.873079739908085</v>
+        <v>2.873079739908086</v>
       </c>
       <c r="U27" t="n">
         <v>0.04689466387227564</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.597586645629217</v>
+        <v>0.5975866456292172</v>
       </c>
       <c r="H28" t="n">
-        <v>5.313088540230679</v>
+        <v>5.31308854023068</v>
       </c>
       <c r="I28" t="n">
         <v>17.97106021583137</v>
@@ -33107,22 +33107,22 @@
         <v>42.24937584598565</v>
       </c>
       <c r="K28" t="n">
-        <v>69.4287030103763</v>
+        <v>69.42870301037631</v>
       </c>
       <c r="L28" t="n">
-        <v>88.84483638745652</v>
+        <v>88.84483638745654</v>
       </c>
       <c r="M28" t="n">
-        <v>93.67442300531444</v>
+        <v>93.67442300531447</v>
       </c>
       <c r="N28" t="n">
-        <v>91.44705459887835</v>
+        <v>91.44705459887837</v>
       </c>
       <c r="O28" t="n">
-        <v>84.46615605675518</v>
+        <v>84.4661560567552</v>
       </c>
       <c r="P28" t="n">
-        <v>72.27538848591909</v>
+        <v>72.27538848591911</v>
       </c>
       <c r="Q28" t="n">
         <v>50.0397326626429</v>
@@ -33134,10 +33134,10 @@
         <v>10.41430545155644</v>
       </c>
       <c r="T28" t="n">
-        <v>2.553324758597563</v>
+        <v>2.553324758597564</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03259563521613915</v>
+        <v>0.03259563521613916</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33271,10 +33271,10 @@
         <v>154.7680223331337</v>
       </c>
       <c r="M30" t="n">
-        <v>180.6069821267575</v>
+        <v>154.5566084516244</v>
       </c>
       <c r="N30" t="n">
-        <v>153.3605910152112</v>
+        <v>179.4109646903441</v>
       </c>
       <c r="O30" t="n">
         <v>169.5929887386224</v>
@@ -33511,13 +33511,13 @@
         <v>180.6069821267575</v>
       </c>
       <c r="N33" t="n">
-        <v>153.3605910152112</v>
+        <v>179.4109646903442</v>
       </c>
       <c r="O33" t="n">
         <v>169.5929887386224</v>
       </c>
       <c r="P33" t="n">
-        <v>136.1133250447424</v>
+        <v>110.0629513696095</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -33739,10 +33739,10 @@
         <v>67.34386363151263</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>115.1013893190381</v>
       </c>
       <c r="L36" t="n">
-        <v>154.2221026437055</v>
+        <v>154.7680223331337</v>
       </c>
       <c r="M36" t="n">
         <v>180.6069821267575</v>
@@ -33751,7 +33751,7 @@
         <v>179.4109646903442</v>
       </c>
       <c r="O36" t="n">
-        <v>169.5929887386224</v>
+        <v>143.5426150634894</v>
       </c>
       <c r="P36" t="n">
         <v>136.1133250447424</v>
@@ -33976,10 +33976,10 @@
         <v>67.34386363151263</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>115.1013893190381</v>
       </c>
       <c r="L39" t="n">
-        <v>154.2221026437055</v>
+        <v>154.7680223331337</v>
       </c>
       <c r="M39" t="n">
         <v>180.6069821267575</v>
@@ -33991,7 +33991,7 @@
         <v>169.5929887386224</v>
       </c>
       <c r="P39" t="n">
-        <v>136.1133250447424</v>
+        <v>110.0629513696095</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -34219,16 +34219,16 @@
         <v>154.7680223331337</v>
       </c>
       <c r="M42" t="n">
-        <v>180.6069821267575</v>
+        <v>154.5566084516245</v>
       </c>
       <c r="N42" t="n">
-        <v>179.4109646903441</v>
+        <v>179.4109646903442</v>
       </c>
       <c r="O42" t="n">
         <v>169.5929887386224</v>
       </c>
       <c r="P42" t="n">
-        <v>110.0629513696094</v>
+        <v>136.1133250447424</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.433187785300051</v>
+        <v>1.332216916706523</v>
       </c>
       <c r="H44" t="n">
-        <v>14.67763440620415</v>
+        <v>13.64356649822068</v>
       </c>
       <c r="I44" t="n">
-        <v>55.25297209278025</v>
+        <v>51.36029268132826</v>
       </c>
       <c r="J44" t="n">
-        <v>121.6400217926103</v>
+        <v>113.0702455343203</v>
       </c>
       <c r="K44" t="n">
-        <v>182.3068607443614</v>
+        <v>169.4629876185075</v>
       </c>
       <c r="L44" t="n">
-        <v>226.1677814287379</v>
+        <v>210.2338210831647</v>
       </c>
       <c r="M44" t="n">
-        <v>251.6552347055677</v>
+        <v>233.9256336756443</v>
       </c>
       <c r="N44" t="n">
-        <v>255.7272795005515</v>
+        <v>237.7107949902368</v>
       </c>
       <c r="O44" t="n">
-        <v>241.4760184604741</v>
+        <v>224.4635630247363</v>
       </c>
       <c r="P44" t="n">
-        <v>206.094195010879</v>
+        <v>191.574457893544</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.7681574498209</v>
+        <v>143.8644395639916</v>
       </c>
       <c r="R44" t="n">
-        <v>90.02748221835438</v>
+        <v>83.68487089406618</v>
       </c>
       <c r="S44" t="n">
-        <v>32.65876665752494</v>
+        <v>30.35789298944992</v>
       </c>
       <c r="T44" t="n">
-        <v>6.273779530150975</v>
+        <v>5.831779552882805</v>
       </c>
       <c r="U44" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1065773533365218</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7668230683329474</v>
+        <v>0.7127988908585895</v>
       </c>
       <c r="H45" t="n">
-        <v>7.405896475741889</v>
+        <v>6.884136656450063</v>
       </c>
       <c r="I45" t="n">
-        <v>26.40158371234052</v>
+        <v>24.54154075982425</v>
       </c>
       <c r="J45" t="n">
-        <v>72.44796366210537</v>
+        <v>67.34386363151263</v>
       </c>
       <c r="K45" t="n">
-        <v>123.8251092404128</v>
+        <v>115.1013893190381</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4981403413271</v>
+        <v>154.7680223331337</v>
       </c>
       <c r="M45" t="n">
-        <v>194.2954765683963</v>
+        <v>180.6069821267575</v>
       </c>
       <c r="N45" t="n">
-        <v>199.4378996889274</v>
+        <v>179.4109646903442</v>
       </c>
       <c r="O45" t="n">
-        <v>182.4467148590237</v>
+        <v>169.5929887386224</v>
       </c>
       <c r="P45" t="n">
-        <v>146.4295734608766</v>
+        <v>110.0629513696095</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.88429202088642</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
-        <v>47.61029541807547</v>
+        <v>44.25605745172894</v>
       </c>
       <c r="S45" t="n">
-        <v>14.24340216837733</v>
+        <v>13.23992676660581</v>
       </c>
       <c r="T45" t="n">
-        <v>3.090835086833239</v>
+        <v>2.873079739908086</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05044888607453604</v>
+        <v>0.04689466387227564</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6428787012339781</v>
+        <v>0.5975866456292172</v>
       </c>
       <c r="H46" t="n">
-        <v>5.715776089153008</v>
+        <v>5.31308854023068</v>
       </c>
       <c r="I46" t="n">
-        <v>19.33311585165454</v>
+        <v>17.97106021583137</v>
       </c>
       <c r="J46" t="n">
-        <v>45.45152417724224</v>
+        <v>42.24937584598565</v>
       </c>
       <c r="K46" t="n">
-        <v>74.69081637972943</v>
+        <v>69.42870301037631</v>
       </c>
       <c r="L46" t="n">
-        <v>95.57852981800436</v>
+        <v>88.84483638745654</v>
       </c>
       <c r="M46" t="n">
-        <v>100.7741585943407</v>
+        <v>93.67442300531447</v>
       </c>
       <c r="N46" t="n">
-        <v>98.3779743442869</v>
+        <v>91.44705459887837</v>
       </c>
       <c r="O46" t="n">
-        <v>90.86798224350812</v>
+        <v>84.4661560567552</v>
       </c>
       <c r="P46" t="n">
-        <v>77.75325673833491</v>
+        <v>72.27538848591911</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.83232470060156</v>
+        <v>50.0397326626429</v>
       </c>
       <c r="R46" t="n">
-        <v>28.90616414821141</v>
+        <v>26.86966862983734</v>
       </c>
       <c r="S46" t="n">
-        <v>11.20362245695941</v>
+        <v>10.41430545155644</v>
       </c>
       <c r="T46" t="n">
-        <v>2.746845359817905</v>
+        <v>2.553324758597564</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03506611097639884</v>
+        <v>0.03259563521613916</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>15.19852482573035</v>
       </c>
       <c r="L17" t="n">
-        <v>35.91975062245194</v>
+        <v>43.08354349450317</v>
       </c>
       <c r="M17" t="n">
-        <v>34.46844756699934</v>
+        <v>68.73180843629126</v>
       </c>
       <c r="N17" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="O17" t="n">
-        <v>35.91975062245194</v>
+        <v>60.05664922348279</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>28.60478837142398</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>17.89315756967532</v>
       </c>
       <c r="L18" t="n">
-        <v>30.41378964732348</v>
+        <v>54.473348152546</v>
       </c>
       <c r="M18" t="n">
-        <v>35.91975062245194</v>
+        <v>37.58882502501191</v>
       </c>
       <c r="N18" t="n">
-        <v>21.10477962097835</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="O18" t="n">
-        <v>35.91975062245194</v>
+        <v>65.69077366698234</v>
       </c>
       <c r="P18" t="n">
-        <v>18.86962892114946</v>
+        <v>40.02920993721607</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.813165908410099</v>
+        <v>9.381068726135823</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>60.54778746289492</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="N19" t="n">
-        <v>31.65528165858924</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="O19" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>15.19852482573035</v>
       </c>
       <c r="L20" t="n">
-        <v>12.85891622965436</v>
+        <v>43.08354349450317</v>
       </c>
       <c r="M20" t="n">
-        <v>32.36675456763103</v>
+        <v>68.73180843629126</v>
       </c>
       <c r="N20" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="O20" t="n">
-        <v>25.16252739216588</v>
+        <v>60.05664922348279</v>
       </c>
       <c r="P20" t="n">
-        <v>35.91975062245194</v>
+        <v>28.60478837142398</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>30.41378964732348</v>
+        <v>54.473348152546</v>
       </c>
       <c r="M21" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="N21" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="O21" t="n">
-        <v>21.10477962097835</v>
+        <v>65.69077366698234</v>
       </c>
       <c r="P21" t="n">
-        <v>18.86962892114946</v>
+        <v>22.63796345070282</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.813165908410099</v>
+        <v>9.381068726135823</v>
       </c>
       <c r="K22" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>60.54778746289492</v>
       </c>
       <c r="N22" t="n">
-        <v>31.65528165858924</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="O22" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>35.91975062245194</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25.50445398570477</v>
       </c>
       <c r="L24" t="n">
         <v>64.70767547621544</v>
@@ -36451,10 +36451,10 @@
         <v>94.0388518361775</v>
       </c>
       <c r="O24" t="n">
-        <v>76.35951016030519</v>
+        <v>76.90542984973349</v>
       </c>
       <c r="P24" t="n">
-        <v>49.02996022542777</v>
+        <v>22.97958655029472</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>12.17488837382658</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="L25" t="n">
-        <v>1.169796804651654</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="M25" t="n">
         <v>94.0388518361775</v>
       </c>
       <c r="N25" t="n">
-        <v>94.0388518361775</v>
+        <v>78.0644138932124</v>
       </c>
       <c r="O25" t="n">
-        <v>94.0388518361775</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>35.57300878959197</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.49649667279539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>26.40458443927008</v>
+        <v>26.40458443927011</v>
       </c>
       <c r="L26" t="n">
         <v>56.98565135267302</v>
@@ -36606,10 +36606,10 @@
         <v>84.20058207791706</v>
       </c>
       <c r="N26" t="n">
-        <v>88.59230365245264</v>
+        <v>88.5923036524527</v>
       </c>
       <c r="O26" t="n">
-        <v>74.89972560063984</v>
+        <v>74.8997256006399</v>
       </c>
       <c r="P26" t="n">
         <v>41.27301065261875</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>25.50445398570476</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>64.70767547621541</v>
+        <v>64.70767547621544</v>
       </c>
       <c r="M27" t="n">
-        <v>88.21986007744555</v>
+        <v>87.67394038801729</v>
       </c>
       <c r="N27" t="n">
-        <v>67.98847816104458</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="O27" t="n">
-        <v>76.90542984973347</v>
+        <v>76.90542984973349</v>
       </c>
       <c r="P27" t="n">
-        <v>49.02996022542774</v>
+        <v>49.02996022542777</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>12.17488837382658</v>
       </c>
       <c r="K28" t="n">
         <v>94.0388518361775</v>
@@ -36764,16 +36764,16 @@
         <v>94.0388518361775</v>
       </c>
       <c r="N28" t="n">
-        <v>8.451450696476783</v>
+        <v>24.56791722041702</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>81.78785157056224</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>53.49649667279539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>64.70767547621544</v>
       </c>
       <c r="M30" t="n">
-        <v>88.21986007744557</v>
+        <v>62.16948640231251</v>
       </c>
       <c r="N30" t="n">
-        <v>67.98847816104455</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="O30" t="n">
         <v>76.90542984973349</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>12.17488837382658</v>
       </c>
       <c r="K31" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="L31" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="M31" t="n">
-        <v>94.03885183617753</v>
+        <v>24.56791722041702</v>
       </c>
       <c r="N31" t="n">
-        <v>8.451450696476797</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>81.78785157056224</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>53.49649667279539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>88.21986007744557</v>
       </c>
       <c r="N33" t="n">
-        <v>67.98847816104455</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="O33" t="n">
         <v>76.90542984973349</v>
       </c>
       <c r="P33" t="n">
-        <v>49.02996022542777</v>
+        <v>22.97958655029484</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.17488837382658</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>94.03885183617753</v>
@@ -37241,10 +37241,10 @@
         <v>8.451450696476797</v>
       </c>
       <c r="O34" t="n">
-        <v>69.61296319673565</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>81.78785157056224</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>25.50445398570477</v>
       </c>
       <c r="L36" t="n">
-        <v>64.16175578678727</v>
+        <v>64.70767547621544</v>
       </c>
       <c r="M36" t="n">
         <v>88.21986007744557</v>
@@ -37399,7 +37399,7 @@
         <v>94.03885183617753</v>
       </c>
       <c r="O36" t="n">
-        <v>76.90542984973349</v>
+        <v>50.85505617460052</v>
       </c>
       <c r="P36" t="n">
         <v>49.02996022542777</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.17488837382658</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>94.03885183617753</v>
+        <v>90.23930226703906</v>
       </c>
       <c r="L37" t="n">
         <v>94.03885183617753</v>
       </c>
       <c r="M37" t="n">
-        <v>24.56791722041708</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="N37" t="n">
         <v>94.03885183617753</v>
@@ -37484,7 +37484,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.49649667279539</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>25.50445398570477</v>
       </c>
       <c r="L39" t="n">
-        <v>64.16175578678727</v>
+        <v>64.70767547621544</v>
       </c>
       <c r="M39" t="n">
         <v>88.21986007744557</v>
@@ -37639,7 +37639,7 @@
         <v>76.90542984973349</v>
       </c>
       <c r="P39" t="n">
-        <v>49.02996022542777</v>
+        <v>22.97958655029484</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,19 +37703,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>94.03885183617753</v>
-      </c>
-      <c r="L40" t="n">
-        <v>90.23930226703906</v>
       </c>
       <c r="M40" t="n">
         <v>94.03885183617753</v>
       </c>
       <c r="N40" t="n">
+        <v>90.23930226703905</v>
+      </c>
+      <c r="O40" t="n">
         <v>94.03885183617753</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>26.40458443927011</v>
       </c>
       <c r="L41" t="n">
-        <v>56.98565135267302</v>
+        <v>56.98565135267305</v>
       </c>
       <c r="M41" t="n">
         <v>84.20058207791709</v>
@@ -37797,7 +37797,7 @@
         <v>74.8997256006399</v>
       </c>
       <c r="P41" t="n">
-        <v>41.27301065261875</v>
+        <v>41.27301065261878</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>64.70767547621544</v>
       </c>
       <c r="M42" t="n">
-        <v>88.21986007744557</v>
+        <v>62.16948640231263</v>
       </c>
       <c r="N42" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="O42" t="n">
         <v>76.90542984973349</v>
       </c>
       <c r="P42" t="n">
-        <v>22.97958655029472</v>
+        <v>49.02996022542777</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.17488837382658</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.169796804651654</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="M43" t="n">
-        <v>23.39812041576536</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="N43" t="n">
-        <v>94.0388518361775</v>
+        <v>90.23930226703905</v>
       </c>
       <c r="O43" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="P43" t="n">
-        <v>94.0388518361775</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.49649667279539</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.960183850264187</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.24845756512408</v>
+        <v>26.40458443927011</v>
       </c>
       <c r="L44" t="n">
-        <v>72.91961169824623</v>
+        <v>56.98565135267305</v>
       </c>
       <c r="M44" t="n">
-        <v>101.9301831078404</v>
+        <v>84.20058207791709</v>
       </c>
       <c r="N44" t="n">
-        <v>106.6087881627674</v>
+        <v>88.5923036524527</v>
       </c>
       <c r="O44" t="n">
-        <v>91.91218103637769</v>
+        <v>74.8997256006399</v>
       </c>
       <c r="P44" t="n">
-        <v>55.79274776995385</v>
+        <v>41.27301065261878</v>
       </c>
       <c r="Q44" t="n">
-        <v>10.26945903142877</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>34.22817390707949</v>
+        <v>25.50445398570477</v>
       </c>
       <c r="L45" t="n">
-        <v>76.43779348440883</v>
+        <v>64.70767547621544</v>
       </c>
       <c r="M45" t="n">
-        <v>101.9083545190844</v>
+        <v>88.21986007744557</v>
       </c>
       <c r="N45" t="n">
-        <v>114.0657868347608</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="O45" t="n">
-        <v>89.75915597013478</v>
+        <v>76.90542984973349</v>
       </c>
       <c r="P45" t="n">
-        <v>59.34620864156196</v>
+        <v>22.97958655029484</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.896138864972428</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>7.90349023519947</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="M46" t="n">
-        <v>121.8916316581079</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="N46" t="n">
-        <v>109.0632270124798</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="O46" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>36.74280559424366</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>53.49649667279539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
